--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24500" windowHeight="15300" tabRatio="500"/>
+    <workbookView xWindow="320" yWindow="0" windowWidth="24500" windowHeight="15300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="110">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Cohort_date</t>
   </si>
   <si>
-    <t>Well-ID</t>
-  </si>
-  <si>
     <t>Sample_saved</t>
   </si>
   <si>
@@ -37,6 +34,321 @@
   </si>
   <si>
     <t>Eclosion_day</t>
+  </si>
+  <si>
+    <t>Well_ID</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2017-08-29</t>
+  </si>
+  <si>
+    <t>2017-08-30</t>
+  </si>
+  <si>
+    <t>2017-08-31</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>2017-09-29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>2017-10-01</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>2017-10-04</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>2017-09-01</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>2017-10-05</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2017-09-07</t>
+  </si>
+  <si>
+    <t>2017-10-06</t>
+  </si>
+  <si>
+    <t>2017-08-24</t>
+  </si>
+  <si>
+    <t>2017-10-07</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>2017-10-10</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>2017-10-11</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>2017-10-13</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>2017-10-14</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>2017-10-15</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>2017-10-18</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>2017-10-19</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>2017-10-20</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>2017-10-21</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>2017-10-22</t>
+  </si>
+  <si>
+    <t>54</t>
   </si>
 </sst>
 </file>
@@ -426,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -448,16 +760,1656 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="0" windowWidth="24500" windowHeight="15300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="112">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -349,6 +349,12 @@
   </si>
   <si>
     <t>54</t>
+  </si>
+  <si>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>Apple</t>
   </si>
 </sst>
 </file>
@@ -738,21 +744,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -771,8 +781,11 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -791,8 +804,11 @@
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -811,8 +827,11 @@
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -831,8 +850,11 @@
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -851,8 +873,11 @@
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -871,8 +896,11 @@
       <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -891,8 +919,11 @@
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -911,8 +942,11 @@
       <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -931,8 +965,11 @@
       <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -951,8 +988,11 @@
       <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -971,8 +1011,11 @@
       <c r="F11" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -991,8 +1034,11 @@
       <c r="F12" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1011,8 +1057,11 @@
       <c r="F13" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1031,8 +1080,11 @@
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1051,8 +1103,11 @@
       <c r="F15" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1071,8 +1126,11 @@
       <c r="F16" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1091,8 +1149,11 @@
       <c r="F17" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1111,8 +1172,11 @@
       <c r="F18" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1131,8 +1195,11 @@
       <c r="F19" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1151,8 +1218,11 @@
       <c r="F20" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1171,8 +1241,11 @@
       <c r="F21" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -1191,8 +1264,11 @@
       <c r="F22" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -1211,8 +1287,11 @@
       <c r="F23" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -1231,8 +1310,11 @@
       <c r="F24" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
@@ -1251,8 +1333,11 @@
       <c r="F25" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -1271,8 +1356,11 @@
       <c r="F26" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -1291,8 +1379,11 @@
       <c r="F27" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
@@ -1311,8 +1402,11 @@
       <c r="F28" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
@@ -1331,8 +1425,11 @@
       <c r="F29" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -1351,8 +1448,11 @@
       <c r="F30" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -1371,8 +1471,11 @@
       <c r="F31" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
@@ -1391,8 +1494,11 @@
       <c r="F32" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -1411,8 +1517,11 @@
       <c r="F33" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -1431,8 +1540,11 @@
       <c r="F34" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -1451,8 +1563,11 @@
       <c r="F35" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -1471,8 +1586,11 @@
       <c r="F36" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -1491,8 +1609,11 @@
       <c r="F37" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -1511,8 +1632,11 @@
       <c r="F38" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
@@ -1531,8 +1655,11 @@
       <c r="F39" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -1551,8 +1678,11 @@
       <c r="F40" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -1571,8 +1701,11 @@
       <c r="F41" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -1591,8 +1724,11 @@
       <c r="F42" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>61</v>
       </c>
@@ -1611,8 +1747,11 @@
       <c r="F43" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
@@ -1631,8 +1770,11 @@
       <c r="F44" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -1651,8 +1793,11 @@
       <c r="F45" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>61</v>
       </c>
@@ -1671,8 +1816,11 @@
       <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>61</v>
       </c>
@@ -1691,8 +1839,11 @@
       <c r="F47" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>61</v>
       </c>
@@ -1711,8 +1862,11 @@
       <c r="F48" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
@@ -1731,8 +1885,11 @@
       <c r="F49" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
@@ -1751,8 +1908,11 @@
       <c r="F50" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
@@ -1771,8 +1931,11 @@
       <c r="F51" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
@@ -1791,8 +1954,11 @@
       <c r="F52" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
@@ -1811,8 +1977,11 @@
       <c r="F53" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
         <v>61</v>
       </c>
@@ -1831,8 +2000,11 @@
       <c r="F54" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>73</v>
       </c>
@@ -1851,8 +2023,11 @@
       <c r="F55" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
         <v>75</v>
       </c>
@@ -1871,8 +2046,11 @@
       <c r="F56" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
         <v>75</v>
       </c>
@@ -1891,8 +2069,11 @@
       <c r="F57" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
         <v>75</v>
       </c>
@@ -1911,8 +2092,11 @@
       <c r="F58" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
         <v>13</v>
       </c>
@@ -1931,8 +2115,11 @@
       <c r="F59" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
         <v>73</v>
       </c>
@@ -1951,8 +2138,11 @@
       <c r="F60" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
@@ -1971,8 +2161,11 @@
       <c r="F61" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
         <v>13</v>
       </c>
@@ -1991,8 +2184,11 @@
       <c r="F62" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
@@ -2011,8 +2207,11 @@
       <c r="F63" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
         <v>75</v>
       </c>
@@ -2031,8 +2230,11 @@
       <c r="F64" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
         <v>75</v>
       </c>
@@ -2051,8 +2253,11 @@
       <c r="F65" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
@@ -2071,8 +2276,11 @@
       <c r="F66" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
         <v>75</v>
       </c>
@@ -2091,8 +2299,11 @@
       <c r="F67" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
         <v>13</v>
       </c>
@@ -2111,8 +2322,11 @@
       <c r="F68" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
         <v>13</v>
       </c>
@@ -2131,8 +2345,11 @@
       <c r="F69" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
@@ -2151,8 +2368,11 @@
       <c r="F70" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
@@ -2171,8 +2391,11 @@
       <c r="F71" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
         <v>12</v>
       </c>
@@ -2191,8 +2414,11 @@
       <c r="F72" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
@@ -2211,8 +2437,11 @@
       <c r="F73" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -2231,8 +2460,11 @@
       <c r="F74" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -2251,8 +2483,11 @@
       <c r="F75" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
         <v>12</v>
       </c>
@@ -2271,8 +2506,11 @@
       <c r="F76" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
         <v>12</v>
       </c>
@@ -2291,8 +2529,11 @@
       <c r="F77" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
         <v>11</v>
       </c>
@@ -2311,8 +2552,11 @@
       <c r="F78" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
         <v>13</v>
       </c>
@@ -2331,8 +2575,11 @@
       <c r="F79" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
         <v>11</v>
       </c>
@@ -2351,8 +2598,11 @@
       <c r="F80" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
         <v>12</v>
       </c>
@@ -2371,8 +2621,11 @@
       <c r="F81" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
@@ -2391,8 +2644,11 @@
       <c r="F82" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
         <v>12</v>
       </c>
@@ -2410,6 +2666,14 @@
       </c>
       <c r="F83" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="B84" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="24500" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="112">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -744,11 +744,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F70" sqref="F70:F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2671,11 +2671,6 @@
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
-      <c r="B84" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="144">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -355,13 +355,109 @@
   </si>
   <si>
     <t>Apple</t>
+  </si>
+  <si>
+    <t>2017-10-23</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>2017-10-24</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>2017-10-25</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>2017-10-26</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>2017-10-27</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>2017-10-29</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>2017-10-30</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>2017-10-31</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>2017-11-01</t>
+  </si>
+  <si>
+    <t>63</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -385,6 +481,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -403,18 +506,158 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -744,11 +987,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F70" sqref="F70:F83"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2671,6 +2914,578 @@
         <v>111</v>
       </c>
     </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E84" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="B91" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$117</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="166">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -451,6 +454,72 @@
   </si>
   <si>
     <t>63</t>
+  </si>
+  <si>
+    <t>Haw</t>
+  </si>
+  <si>
+    <t>2017-09-23</t>
+  </si>
+  <si>
+    <t>Should have been placed in trikinetics but it was in the skipped cj=ohort's tupper and was left by mistake in the plate :(</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>organism</t>
+  </si>
+  <si>
+    <t>Trikinetics_position</t>
+  </si>
+  <si>
+    <t>Trik_monitor</t>
+  </si>
+  <si>
+    <t>Trikinetics_entry_LD_time</t>
+  </si>
+  <si>
+    <t>Trikinetic_exit_date</t>
+  </si>
+  <si>
+    <t>Trikinetics_exit_LD_time</t>
+  </si>
+  <si>
+    <t>notes_2</t>
+  </si>
+  <si>
+    <t>Free_run_trik_monitor</t>
+  </si>
+  <si>
+    <t>Free_run_trik_position</t>
+  </si>
+  <si>
+    <t>Free_run_entry_date</t>
+  </si>
+  <si>
+    <t>Free_run_entry_time</t>
+  </si>
+  <si>
+    <t>Free_run_exit_date</t>
+  </si>
+  <si>
+    <t>Free_run_exit_time</t>
+  </si>
+  <si>
+    <t>notes_3</t>
+  </si>
+  <si>
+    <t>2017-09-22</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>wasp</t>
   </si>
 </sst>
 </file>
@@ -489,15 +558,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -505,8 +580,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -578,16 +662,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -623,6 +729,8 @@
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -658,6 +766,8 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -987,11 +1097,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:AK119"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E117" sqref="E117"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1005,7 +1115,7 @@
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1027,8 +1137,56 @@
       <c r="G1" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1051,7 +1209,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1074,7 +1232,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1097,7 +1255,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:23">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1120,7 +1278,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:23">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1143,7 +1301,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:23">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1166,7 +1324,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:23">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1189,7 +1347,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:23">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1212,7 +1370,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:23">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1235,7 +1393,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:23">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1258,7 +1416,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:23">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1281,7 +1439,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:23">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1304,7 +1462,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:23">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1327,7 +1485,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:23">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1350,7 +1508,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:23">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -2845,7 +3003,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
         <v>12</v>
       </c>
@@ -2868,7 +3026,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
@@ -2891,7 +3049,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
         <v>12</v>
       </c>
@@ -2914,7 +3072,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
         <v>61</v>
       </c>
@@ -2931,7 +3089,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
         <v>12</v>
       </c>
@@ -2948,7 +3106,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
         <v>12</v>
       </c>
@@ -2965,7 +3123,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
         <v>12</v>
       </c>
@@ -2982,7 +3140,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
         <v>13</v>
       </c>
@@ -2999,7 +3157,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
         <v>13</v>
       </c>
@@ -3016,7 +3174,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
         <v>73</v>
       </c>
@@ -3033,7 +3191,10 @@
         <v>119</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:8">
+      <c r="A91" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="B91" s="1" t="s">
         <v>120</v>
       </c>
@@ -3043,8 +3204,17 @@
       <c r="D91" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="E91" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
         <v>11</v>
       </c>
@@ -3061,7 +3231,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
         <v>12</v>
       </c>
@@ -3078,7 +3248,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
         <v>12</v>
       </c>
@@ -3095,7 +3265,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
         <v>13</v>
       </c>
@@ -3112,7 +3282,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
         <v>61</v>
       </c>
@@ -3401,7 +3571,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:37">
       <c r="A113" s="1" t="s">
         <v>12</v>
       </c>
@@ -3418,7 +3588,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:37">
       <c r="A114" s="1" t="s">
         <v>61</v>
       </c>
@@ -3435,7 +3605,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:37">
       <c r="A115" s="1" t="s">
         <v>12</v>
       </c>
@@ -3452,7 +3622,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:37">
       <c r="A116" s="1" t="s">
         <v>13</v>
       </c>
@@ -3469,7 +3639,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:37">
       <c r="A117" s="1" t="s">
         <v>13</v>
       </c>
@@ -3486,7 +3656,52 @@
         <v>139</v>
       </c>
     </row>
+    <row r="119" spans="1:37" s="7" customFormat="1">
+      <c r="H119" s="8"/>
+      <c r="I119" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K119" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="U119" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="V119" s="10"/>
+      <c r="W119" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="X119" s="9">
+        <f>W119-I119</f>
+        <v>31</v>
+      </c>
+      <c r="Y119" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z119" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA119" s="10">
+        <v>7</v>
+      </c>
+      <c r="AB119" s="10">
+        <v>2</v>
+      </c>
+      <c r="AC119" s="11">
+        <v>0.45416666666666666</v>
+      </c>
+      <c r="AD119" s="9"/>
+      <c r="AE119" s="10"/>
+      <c r="AG119" s="8"/>
+      <c r="AH119" s="8"/>
+      <c r="AI119" s="8"/>
+      <c r="AK119" s="8"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:H117"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24500" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="24260" windowHeight="15120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$122</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="205">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -520,6 +520,123 @@
   </si>
   <si>
     <t>wasp</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>10:15</t>
+  </si>
+  <si>
+    <t>10:16</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>changed water 2017-10-30 11:51</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>10:36</t>
+  </si>
+  <si>
+    <t>10:54</t>
+  </si>
+  <si>
+    <t>changed water 2017-10-26 10:53</t>
+  </si>
+  <si>
+    <t>10:46</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>10:47</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>11:01</t>
+  </si>
+  <si>
+    <t>2017-10-28</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>20:37</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>this individual went directly to free run from the plate (no trikinetics in the room)</t>
+  </si>
+  <si>
+    <t>disturbed to check death 2017-10-25 around 9:57</t>
+  </si>
+  <si>
+    <t>disturbed to fix cotton ball 2017-10-22 10:16; disturbed to check death 2017-10-30 10:14 and changed water 2017-10-30 11:46</t>
+  </si>
+  <si>
+    <t>19:29</t>
+  </si>
+  <si>
+    <t>changed water 2017-10-20 18:08; food changed 2017-10-27 11:54</t>
+  </si>
+  <si>
+    <t>17:43</t>
+  </si>
+  <si>
+    <t>17:51</t>
+  </si>
+  <si>
+    <t>escaped</t>
+  </si>
+  <si>
+    <t>13:08</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>19:38</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>18:19</t>
+  </si>
+  <si>
+    <t>18:20</t>
+  </si>
+  <si>
+    <t>2017-10-16</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>20:16</t>
+  </si>
+  <si>
+    <t>2017-09-27</t>
+  </si>
+  <si>
+    <t>fly</t>
+  </si>
+  <si>
+    <t>11:30</t>
   </si>
 </sst>
 </file>
@@ -567,7 +684,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,7 +707,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -666,8 +783,80 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -681,19 +870,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="147">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -731,6 +914,42 @@
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -768,6 +987,42 @@
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1097,11 +1352,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK119"/>
+  <dimension ref="A1:W137"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1112,7 +1369,18 @@
     <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -1208,6 +1476,13 @@
       <c r="G2" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
@@ -1231,6 +1506,9 @@
       <c r="G3" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
@@ -1254,6 +1532,9 @@
       <c r="G4" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="1" t="s">
@@ -1277,6 +1558,9 @@
       <c r="G5" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="1" t="s">
@@ -1300,6 +1584,9 @@
       <c r="G6" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="I6" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="1" t="s">
@@ -1323,6 +1610,9 @@
       <c r="G7" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="I7" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="1" t="s">
@@ -1346,6 +1636,9 @@
       <c r="G8" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="I8" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="1" t="s">
@@ -1369,6 +1662,9 @@
       <c r="G9" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="I9" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="1" t="s">
@@ -1392,6 +1688,9 @@
       <c r="G10" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="I10" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="1" t="s">
@@ -1415,6 +1714,9 @@
       <c r="G11" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="I11" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="1" t="s">
@@ -1438,6 +1740,9 @@
       <c r="G12" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="I12" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="1" t="s">
@@ -1461,6 +1766,9 @@
       <c r="G13" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="I13" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="1" t="s">
@@ -1484,6 +1792,9 @@
       <c r="G14" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="I14" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="1" t="s">
@@ -1507,6 +1818,9 @@
       <c r="G15" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="I15" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="1" t="s">
@@ -1530,8 +1844,11 @@
       <c r="G16" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1553,8 +1870,11 @@
       <c r="G17" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1576,8 +1896,11 @@
       <c r="G18" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1599,8 +1922,11 @@
       <c r="G19" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1622,8 +1948,11 @@
       <c r="G20" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1645,8 +1974,11 @@
       <c r="G21" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -1668,8 +2000,11 @@
       <c r="G22" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -1691,8 +2026,11 @@
       <c r="G23" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -1714,8 +2052,11 @@
       <c r="G24" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
@@ -1737,8 +2078,11 @@
       <c r="G25" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="I25" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -1760,8 +2104,11 @@
       <c r="G26" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="I26" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -1783,8 +2130,11 @@
       <c r="G27" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="I27" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
@@ -1806,8 +2156,11 @@
       <c r="G28" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="I28" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
@@ -1829,8 +2182,11 @@
       <c r="G29" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="I29" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -1852,8 +2208,11 @@
       <c r="G30" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="I30" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -1875,8 +2234,11 @@
       <c r="G31" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="I31" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
@@ -1898,8 +2260,11 @@
       <c r="G32" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="I32" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -1921,8 +2286,11 @@
       <c r="G33" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="I33" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -1944,8 +2312,11 @@
       <c r="G34" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="I34" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -1967,8 +2338,11 @@
       <c r="G35" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="I35" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -1990,8 +2364,11 @@
       <c r="G36" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="I36" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -2013,8 +2390,11 @@
       <c r="G37" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="I37" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -2036,8 +2416,11 @@
       <c r="G38" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="I38" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
@@ -2059,8 +2442,11 @@
       <c r="G39" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="I39" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -2082,8 +2468,11 @@
       <c r="G40" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="I40" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -2105,8 +2494,11 @@
       <c r="G41" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="I41" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -2128,8 +2520,11 @@
       <c r="G42" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="I42" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>61</v>
       </c>
@@ -2151,8 +2546,11 @@
       <c r="G43" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="I43" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
@@ -2174,8 +2572,11 @@
       <c r="G44" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="I44" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -2197,8 +2598,11 @@
       <c r="G45" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="I45" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
         <v>61</v>
       </c>
@@ -2220,8 +2624,11 @@
       <c r="G46" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="I46" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
         <v>61</v>
       </c>
@@ -2243,8 +2650,11 @@
       <c r="G47" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="I47" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
         <v>61</v>
       </c>
@@ -2266,8 +2676,11 @@
       <c r="G48" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="I48" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
@@ -2289,8 +2702,11 @@
       <c r="G49" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="I49" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
@@ -2312,8 +2728,11 @@
       <c r="G50" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="I50" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
@@ -2335,8 +2754,11 @@
       <c r="G51" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="I51" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
@@ -2358,8 +2780,11 @@
       <c r="G52" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="I52" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,8 +2806,11 @@
       <c r="G53" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="I53" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
         <v>61</v>
       </c>
@@ -2404,8 +2832,11 @@
       <c r="G54" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="I54" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
         <v>73</v>
       </c>
@@ -2427,8 +2858,11 @@
       <c r="G55" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="I55" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
         <v>75</v>
       </c>
@@ -2450,8 +2884,11 @@
       <c r="G56" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="I56" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
         <v>75</v>
       </c>
@@ -2473,8 +2910,11 @@
       <c r="G57" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="I57" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
         <v>75</v>
       </c>
@@ -2496,8 +2936,11 @@
       <c r="G58" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="I58" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
         <v>13</v>
       </c>
@@ -2519,8 +2962,11 @@
       <c r="G59" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="I59" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
         <v>73</v>
       </c>
@@ -2542,8 +2988,11 @@
       <c r="G60" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="I60" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
@@ -2565,8 +3014,11 @@
       <c r="G61" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="I61" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
         <v>13</v>
       </c>
@@ -2588,8 +3040,11 @@
       <c r="G62" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="I62" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
@@ -2611,8 +3066,11 @@
       <c r="G63" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="I63" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
         <v>75</v>
       </c>
@@ -2634,8 +3092,11 @@
       <c r="G64" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="I64" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
         <v>75</v>
       </c>
@@ -2657,8 +3118,11 @@
       <c r="G65" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="I65" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
@@ -2680,8 +3144,11 @@
       <c r="G66" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="I66" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
         <v>75</v>
       </c>
@@ -2703,8 +3170,11 @@
       <c r="G67" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="I67" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
         <v>13</v>
       </c>
@@ -2726,8 +3196,11 @@
       <c r="G68" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="I68" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
         <v>13</v>
       </c>
@@ -2749,8 +3222,11 @@
       <c r="G69" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="I69" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
@@ -2772,8 +3248,11 @@
       <c r="G70" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="I70" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
@@ -2795,8 +3274,11 @@
       <c r="G71" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="I71" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
         <v>12</v>
       </c>
@@ -2818,8 +3300,11 @@
       <c r="G72" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="I72" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
@@ -2841,8 +3326,11 @@
       <c r="G73" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="I73" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -2864,8 +3352,11 @@
       <c r="G74" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="I74" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -2887,8 +3378,11 @@
       <c r="G75" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="I75" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
         <v>12</v>
       </c>
@@ -2910,8 +3404,11 @@
       <c r="G76" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="I76" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
         <v>12</v>
       </c>
@@ -2933,8 +3430,11 @@
       <c r="G77" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="I77" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
         <v>11</v>
       </c>
@@ -2956,8 +3456,11 @@
       <c r="G78" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="I78" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
         <v>13</v>
       </c>
@@ -2979,8 +3482,11 @@
       <c r="G79" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="I79" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
         <v>11</v>
       </c>
@@ -3002,8 +3508,11 @@
       <c r="G80" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
         <v>12</v>
       </c>
@@ -3025,8 +3534,11 @@
       <c r="G81" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
@@ -3048,8 +3560,11 @@
       <c r="G82" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
         <v>12</v>
       </c>
@@ -3071,8 +3586,11 @@
       <c r="G83" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
         <v>61</v>
       </c>
@@ -3088,8 +3606,14 @@
       <c r="E84" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="G84" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
         <v>12</v>
       </c>
@@ -3105,8 +3629,14 @@
       <c r="E85" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="G85" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
         <v>12</v>
       </c>
@@ -3122,8 +3652,14 @@
       <c r="E86" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="G86" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
         <v>12</v>
       </c>
@@ -3139,8 +3675,14 @@
       <c r="E87" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="G87" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
         <v>13</v>
       </c>
@@ -3156,8 +3698,14 @@
       <c r="E88" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="G88" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
         <v>13</v>
       </c>
@@ -3173,8 +3721,14 @@
       <c r="E89" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="G89" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
         <v>73</v>
       </c>
@@ -3190,8 +3744,14 @@
       <c r="E90" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="G90" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="4" t="s">
         <v>145</v>
       </c>
@@ -3213,8 +3773,11 @@
       <c r="H91" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
         <v>11</v>
       </c>
@@ -3230,8 +3793,14 @@
       <c r="E92" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="G92" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
         <v>12</v>
       </c>
@@ -3247,8 +3816,14 @@
       <c r="E93" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="G93" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
         <v>12</v>
       </c>
@@ -3264,8 +3839,14 @@
       <c r="E94" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="G94" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
         <v>13</v>
       </c>
@@ -3281,8 +3862,14 @@
       <c r="E95" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="G95" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
         <v>61</v>
       </c>
@@ -3298,8 +3885,14 @@
       <c r="E96" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="G96" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23">
       <c r="A97" s="1" t="s">
         <v>61</v>
       </c>
@@ -3315,8 +3908,14 @@
       <c r="E97" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="G97" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23">
       <c r="A98" s="1" t="s">
         <v>12</v>
       </c>
@@ -3332,8 +3931,14 @@
       <c r="E98" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="G98" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23">
       <c r="A99" s="1" t="s">
         <v>12</v>
       </c>
@@ -3349,8 +3954,14 @@
       <c r="E99" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="G99" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23">
       <c r="A100" s="1" t="s">
         <v>12</v>
       </c>
@@ -3366,8 +3977,14 @@
       <c r="E100" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="G100" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23">
       <c r="A101" s="1" t="s">
         <v>12</v>
       </c>
@@ -3383,8 +4000,14 @@
       <c r="E101" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="G101" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23">
       <c r="A102" s="1" t="s">
         <v>13</v>
       </c>
@@ -3400,8 +4023,14 @@
       <c r="E102" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="G102" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23">
       <c r="A103" s="1" t="s">
         <v>13</v>
       </c>
@@ -3417,8 +4046,14 @@
       <c r="E103" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="G103" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23">
       <c r="A104" s="1" t="s">
         <v>13</v>
       </c>
@@ -3434,8 +4069,14 @@
       <c r="E104" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="G104" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23">
       <c r="A105" s="1" t="s">
         <v>13</v>
       </c>
@@ -3451,8 +4092,14 @@
       <c r="E105" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="G105" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23">
       <c r="A106" s="1" t="s">
         <v>12</v>
       </c>
@@ -3468,25 +4115,52 @@
       <c r="E106" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="G106" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23">
       <c r="A107" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="G107" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q107" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="R107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S107" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="T107" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="W107" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23">
       <c r="A108" s="1" t="s">
         <v>13</v>
       </c>
@@ -3497,47 +4171,110 @@
         <v>130</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="E108" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q108" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="R108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S108" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="T108" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="W108" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23">
+      <c r="A109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q109" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="R109" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="S109" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="T109" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="W109" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23">
+      <c r="A110" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="G110" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q110" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="R110" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="S110" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="T110" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="W110" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23">
       <c r="A111" s="1" t="s">
         <v>61</v>
       </c>
@@ -3548,160 +4285,762 @@
         <v>84</v>
       </c>
       <c r="D111" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q111" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="R111" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S111" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="T111" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="W111" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23">
+      <c r="A112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E112" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
+      <c r="A113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
+      <c r="A114" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
+      <c r="A115" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
+      <c r="A116" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="1" t="s">
+      <c r="G116" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
+      <c r="A117" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="113" spans="1:37">
-      <c r="A113" s="1" t="s">
+      <c r="G117" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
+      <c r="A118" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="114" spans="1:37">
-      <c r="A114" s="1" t="s">
+      <c r="G118" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
+      <c r="A119" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="115" spans="1:37">
-      <c r="A115" s="1" t="s">
+      <c r="G119" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
+      <c r="A120" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="116" spans="1:37">
-      <c r="A116" s="1" t="s">
+      <c r="G120" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
+      <c r="A121" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E121" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="117" spans="1:37">
-      <c r="A117" s="1" t="s">
+      <c r="G121" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
+      <c r="A122" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="119" spans="1:37" s="7" customFormat="1">
-      <c r="H119" s="8"/>
-      <c r="I119" s="8" t="s">
+      <c r="G122" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
+      <c r="A123" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J119" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K119" s="8" t="s">
+      <c r="B123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="U119" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="V119" s="10"/>
-      <c r="W119" s="9" t="s">
+      <c r="I123" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P123" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
+      <c r="A124" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O124" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="P124" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
+      <c r="A125" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="P125" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
+      <c r="A126" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
+      <c r="A127" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O127" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P127" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
+      <c r="A128" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D128" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="X119" s="9">
-        <f>W119-I119</f>
-        <v>31</v>
-      </c>
-      <c r="Y119" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z119" s="10" t="s">
+      <c r="E128" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J128" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AA119" s="10">
-        <v>7</v>
-      </c>
-      <c r="AB119" s="10">
-        <v>2</v>
-      </c>
-      <c r="AC119" s="11">
-        <v>0.45416666666666666</v>
-      </c>
-      <c r="AD119" s="9"/>
-      <c r="AE119" s="10"/>
-      <c r="AG119" s="8"/>
-      <c r="AH119" s="8"/>
-      <c r="AI119" s="8"/>
-      <c r="AK119" s="8"/>
+      <c r="K128" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P128" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
+      <c r="A129" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16">
+      <c r="A130" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O130" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16">
+      <c r="A131" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
+      <c r="A132" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="P132" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16">
+      <c r="A133" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
+      <c r="I134" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16">
+      <c r="I135" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16">
+      <c r="I136" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16">
+      <c r="I137" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H117"/>
+  <autoFilter ref="A1:H122"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="24260" windowHeight="15120" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="24500" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -675,18 +675,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -856,7 +850,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -873,7 +867,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="147">
@@ -1355,10 +1348,10 @@
   <dimension ref="A1:W137"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D106" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="K128" sqref="K128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4566,7 +4559,7 @@
       </c>
     </row>
     <row r="123" spans="1:16">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -4610,7 +4603,7 @@
       </c>
     </row>
     <row r="124" spans="1:16">
-      <c r="A124" s="9" t="s">
+      <c r="A124" s="8" t="s">
         <v>75</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -4654,7 +4647,7 @@
       </c>
     </row>
     <row r="125" spans="1:16">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -4698,7 +4691,7 @@
       </c>
     </row>
     <row r="126" spans="1:16">
-      <c r="A126" s="9" t="s">
+      <c r="A126" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -4736,7 +4729,7 @@
       </c>
     </row>
     <row r="127" spans="1:16">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -4780,7 +4773,7 @@
       </c>
     </row>
     <row r="128" spans="1:16">
-      <c r="A128" s="9" t="s">
+      <c r="A128" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -4818,7 +4811,7 @@
       </c>
     </row>
     <row r="129" spans="1:16">
-      <c r="A129" s="9" t="s">
+      <c r="A129" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -4859,7 +4852,7 @@
       </c>
     </row>
     <row r="130" spans="1:16">
-      <c r="A130" s="9" t="s">
+      <c r="A130" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -4900,7 +4893,7 @@
       </c>
     </row>
     <row r="131" spans="1:16">
-      <c r="A131" s="9" t="s">
+      <c r="A131" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -4941,7 +4934,7 @@
       </c>
     </row>
     <row r="132" spans="1:16">
-      <c r="A132" s="9" t="s">
+      <c r="A132" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -4985,7 +4978,7 @@
       </c>
     </row>
     <row r="133" spans="1:16">
-      <c r="A133" s="9" t="s">
+      <c r="A133" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B133" s="1" t="s">

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24500" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="24260" windowHeight="15120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="224">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -637,6 +637,63 @@
   </si>
   <si>
     <t>11:30</t>
+  </si>
+  <si>
+    <t>2017-11-04</t>
+  </si>
+  <si>
+    <t>18:50</t>
+  </si>
+  <si>
+    <t>2017-11-02</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple </t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fly </t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>2017-11-05</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>2017-11-07</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>2017-11-08</t>
+  </si>
+  <si>
+    <t>71</t>
   </si>
 </sst>
 </file>
@@ -1345,13 +1402,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W137"/>
+  <dimension ref="A1:W146"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D106" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K128" sqref="K128"/>
+      <selection pane="bottomRight" activeCell="J146" sqref="J146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4724,6 +4781,12 @@
       <c r="M126" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="N126" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="P126" s="1" t="s">
         <v>171</v>
       </c>
@@ -5013,23 +5076,341 @@
       </c>
     </row>
     <row r="134" spans="1:16">
+      <c r="A134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="I134" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="J134" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="135" spans="1:16">
+      <c r="A135" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="I135" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="J135" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="136" spans="1:16">
+      <c r="A136" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="I136" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="J136" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="137" spans="1:16">
+      <c r="A137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="I137" s="1" t="s">
         <v>164</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16">
+      <c r="A138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16">
+      <c r="A139" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16">
+      <c r="A140" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16">
+      <c r="A141" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16">
+      <c r="A142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16">
+      <c r="A143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16">
+      <c r="A144" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="24260" windowHeight="15120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="225">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -694,6 +694,9 @@
   </si>
   <si>
     <t>71</t>
+  </si>
+  <si>
+    <t>2017-11-09</t>
   </si>
 </sst>
 </file>
@@ -758,8 +761,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="147">
+  <cellStyleXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -926,7 +935,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="147">
+  <cellStyles count="153">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1000,6 +1009,9 @@
     <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1073,6 +1085,9 @@
     <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1402,13 +1417,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W146"/>
+  <dimension ref="A1:W149"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J146" sqref="J146"/>
+      <selection pane="bottomRight" activeCell="I146" sqref="I146:J149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5413,6 +5428,84 @@
         <v>214</v>
       </c>
     </row>
+    <row r="147" spans="1:10">
+      <c r="A147" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H122"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="234">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -697,6 +697,33 @@
   </si>
   <si>
     <t>2017-11-09</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>2017-11-11</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>10:11</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>10:12</t>
+  </si>
+  <si>
+    <t>10:14</t>
   </si>
 </sst>
 </file>
@@ -1417,13 +1444,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W149"/>
+  <dimension ref="A1:W151"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D121" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D130" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I146" sqref="I146:J149"/>
+      <selection pane="bottomRight" activeCell="F142" sqref="F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5376,7 +5403,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:13">
       <c r="A145" s="1" t="s">
         <v>61</v>
       </c>
@@ -5402,7 +5429,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:13">
       <c r="A146" s="1" t="s">
         <v>12</v>
       </c>
@@ -5427,8 +5454,17 @@
       <c r="J146" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="K146" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="1" t="s">
         <v>61</v>
       </c>
@@ -5454,7 +5490,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:13">
       <c r="A148" s="1" t="s">
         <v>61</v>
       </c>
@@ -5479,8 +5515,17 @@
       <c r="J148" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="K148" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="1" t="s">
         <v>73</v>
       </c>
@@ -5504,6 +5549,85 @@
       </c>
       <c r="J149" s="1" t="s">
         <v>214</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M149" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="A150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M151" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="244">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -724,6 +724,36 @@
   </si>
   <si>
     <t>10:14</t>
+  </si>
+  <si>
+    <t>2017-11-13</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>10:01</t>
+  </si>
+  <si>
+    <t>10:02</t>
+  </si>
+  <si>
+    <t>11:03</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>11:08</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>11:-8</t>
   </si>
 </sst>
 </file>
@@ -1444,13 +1474,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W151"/>
+  <dimension ref="A1:W153"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D130" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F142" sqref="F142"/>
+      <selection pane="bottomRight" activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5403,7 +5433,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:15">
       <c r="A145" s="1" t="s">
         <v>61</v>
       </c>
@@ -5429,7 +5459,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:15">
       <c r="A146" s="1" t="s">
         <v>12</v>
       </c>
@@ -5463,8 +5493,14 @@
       <c r="M146" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="147" spans="1:13">
+      <c r="N146" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O146" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" s="1" t="s">
         <v>61</v>
       </c>
@@ -5490,7 +5526,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:15">
       <c r="A148" s="1" t="s">
         <v>61</v>
       </c>
@@ -5524,8 +5560,14 @@
       <c r="M148" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="149" spans="1:13">
+      <c r="N148" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O148" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5601,14 @@
       <c r="M149" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="150" spans="1:13">
+      <c r="N149" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O149" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" s="1" t="s">
         <v>13</v>
       </c>
@@ -5595,7 +5643,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:15">
       <c r="A151" s="1" t="s">
         <v>61</v>
       </c>
@@ -5628,6 +5676,82 @@
       </c>
       <c r="M151" s="1" t="s">
         <v>232</v>
+      </c>
+      <c r="N151" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O151" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="A152" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
+      <c r="A153" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M153" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24660" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="254">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -753,7 +753,37 @@
     <t>74</t>
   </si>
   <si>
-    <t>11:-8</t>
+    <t>2017-1-14</t>
+  </si>
+  <si>
+    <t>10:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changed water 2017-11-15 10:16 </t>
+  </si>
+  <si>
+    <t>2017-11-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 </t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>this individual went directly to free run from the plate (no trikinetics in the room); changed water 2017-11-13 21:36; disturbed to check for deaths 2017-11-15 21:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disturbed to check for deaths 2017-11-14 10:18; disturbed to check for deathh 2017-11-16 10:02 </t>
   </si>
 </sst>
 </file>
@@ -1474,13 +1504,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W153"/>
+  <dimension ref="A1:W156"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D130" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="O103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A134" sqref="A134"/>
+      <selection pane="bottomRight" activeCell="Q118" sqref="Q118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4279,7 +4309,7 @@
         <v>183</v>
       </c>
       <c r="W107" s="1" t="s">
-        <v>185</v>
+        <v>252</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -5146,6 +5176,15 @@
       <c r="M133" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="N133" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P133" s="1" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="134" spans="1:16">
       <c r="A134" s="1" t="s">
@@ -5433,7 +5472,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:16">
       <c r="A145" s="1" t="s">
         <v>61</v>
       </c>
@@ -5459,7 +5498,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:16">
       <c r="A146" s="1" t="s">
         <v>12</v>
       </c>
@@ -5500,7 +5539,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:16">
       <c r="A147" s="1" t="s">
         <v>61</v>
       </c>
@@ -5526,7 +5565,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:16">
       <c r="A148" s="1" t="s">
         <v>61</v>
       </c>
@@ -5567,7 +5606,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:16">
       <c r="A149" s="1" t="s">
         <v>73</v>
       </c>
@@ -5608,7 +5647,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:16">
       <c r="A150" s="1" t="s">
         <v>13</v>
       </c>
@@ -5642,8 +5681,11 @@
       <c r="M150" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="151" spans="1:15">
+      <c r="P150" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16">
       <c r="A151" s="1" t="s">
         <v>61</v>
       </c>
@@ -5684,7 +5726,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:16">
       <c r="A152" s="1" t="s">
         <v>12</v>
       </c>
@@ -5719,7 +5761,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:16">
       <c r="A153" s="1" t="s">
         <v>61</v>
       </c>
@@ -5751,7 +5793,112 @@
         <v>120</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16">
+      <c r="A154" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K154" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M154" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16">
+      <c r="A155" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16">
+      <c r="A156" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M156" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24660" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="24500" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -848,8 +848,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="153">
+  <cellStyleXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1022,7 +1028,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="153">
+  <cellStyles count="159">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1099,6 +1105,9 @@
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1175,6 +1184,9 @@
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1507,10 +1519,10 @@
   <dimension ref="A1:W156"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="O103" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q118" sqref="Q118"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24500" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="257">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -784,6 +784,15 @@
   </si>
   <si>
     <t xml:space="preserve">disturbed to check for deaths 2017-11-14 10:18; disturbed to check for deathh 2017-11-16 10:02 </t>
+  </si>
+  <si>
+    <t>2017-11-17</t>
+  </si>
+  <si>
+    <t>10:40</t>
+  </si>
+  <si>
+    <t>changed water 2017-11-17 10:42; disturbed to check for death 2017-11-17 9:53</t>
   </si>
 </sst>
 </file>
@@ -1516,13 +1525,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W156"/>
+  <dimension ref="A1:W157"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D126" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="K126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="S152" sqref="S152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5772,6 +5781,9 @@
       <c r="M152" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="P152" s="1" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="153" spans="1:16">
       <c r="A153" s="1" t="s">
@@ -5911,6 +5923,41 @@
       </c>
       <c r="M156" s="1" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16">
+      <c r="A157" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="24500" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="258">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -793,6 +793,9 @@
   </si>
   <si>
     <t>changed water 2017-11-17 10:42; disturbed to check for death 2017-11-17 9:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changed water 2017-11-28 9:59 </t>
   </si>
 </sst>
 </file>
@@ -1528,10 +1531,10 @@
   <dimension ref="A1:W157"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K126" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S152" sqref="S152"/>
+      <selection pane="bottomRight" activeCell="P154" sqref="P154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5819,6 +5822,9 @@
       <c r="M153" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="P153" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="154" spans="1:16">
       <c r="A154" s="1" t="s">

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24500" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="24260" windowHeight="15120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="284">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -759,9 +759,6 @@
     <t>10:18</t>
   </si>
   <si>
-    <t xml:space="preserve">changed water 2017-11-15 10:16 </t>
-  </si>
-  <si>
     <t>2017-11-16</t>
   </si>
   <si>
@@ -792,10 +789,91 @@
     <t>10:40</t>
   </si>
   <si>
-    <t>changed water 2017-11-17 10:42; disturbed to check for death 2017-11-17 9:53</t>
-  </si>
-  <si>
     <t xml:space="preserve">changed water 2017-11-28 9:59 </t>
+  </si>
+  <si>
+    <t>2017-11-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91 </t>
+  </si>
+  <si>
+    <t>10:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changed water 2017-11-17 10:42; disturbed to check for death 2017-11-17 9:53; changed water 2017-11-29 10:26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-31 </t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-24 </t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:14 </t>
+  </si>
+  <si>
+    <t>11:37</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>12:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 </t>
+  </si>
+  <si>
+    <t>2017-11-24</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63 </t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>2017-11-22</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>14:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:49 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">this individual went directly to free run from the plate (no trikinetics in the room); changed water 2017-11-17 22:45 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">changed water 2017-11-15 10:16; disturbed to check for death 2017-11-19 9:18; death: ran out of water </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:59 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">this individual went directly to free run from the plate (no trikinetics in the room); disturbed to check for death 2017-11-20 </t>
   </si>
 </sst>
 </file>
@@ -1528,13 +1606,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W157"/>
+  <dimension ref="A1:W164"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F126" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="O95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P154" sqref="P154"/>
+      <selection pane="bottomRight" activeCell="W111" sqref="W111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4332,8 +4410,14 @@
       <c r="T107" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="U107" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="V107" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="W107" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -4371,7 +4455,7 @@
         <v>183</v>
       </c>
       <c r="W108" s="1" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -4408,6 +4492,12 @@
       <c r="T109" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="U109" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="V109" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="W109" s="1" t="s">
         <v>185</v>
       </c>
@@ -4447,7 +4537,7 @@
         <v>183</v>
       </c>
       <c r="W110" s="1" t="s">
-        <v>185</v>
+        <v>283</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -5207,7 +5297,7 @@
         <v>244</v>
       </c>
       <c r="P133" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -5705,8 +5795,14 @@
       <c r="M150" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="N150" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="O150" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="P150" s="1" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -5785,7 +5881,7 @@
         <v>241</v>
       </c>
       <c r="P152" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -5823,7 +5919,7 @@
         <v>241</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -5837,7 +5933,7 @@
         <v>55</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>117</v>
@@ -5866,16 +5962,16 @@
         <v>13</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="D155" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E155" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>209</v>
@@ -5887,7 +5983,7 @@
         <v>203</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L155" s="1" t="s">
         <v>6</v>
@@ -5907,10 +6003,10 @@
         <v>14</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>111</v>
@@ -5929,6 +6025,12 @@
       </c>
       <c r="M156" s="1" t="s">
         <v>236</v>
+      </c>
+      <c r="N156" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="O156" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -5942,10 +6044,10 @@
         <v>113</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>111</v>
@@ -5963,7 +6065,252 @@
         <v>120</v>
       </c>
       <c r="M157" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16">
+      <c r="A158" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16">
+      <c r="A159" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16">
+      <c r="A160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
+      <c r="A161" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
+      <c r="A162" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K162" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M162" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
+      <c r="A163" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K163" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M163" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
+      <c r="A164" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K164" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M164" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="24260" windowHeight="15120" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="24500" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1609,10 +1609,10 @@
   <dimension ref="A1:W164"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="O95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W111" sqref="W111"/>
+      <selection pane="bottomRight" activeCell="A165" sqref="A165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24500" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="285">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -874,6 +874,9 @@
   </si>
   <si>
     <t xml:space="preserve">this individual went directly to free run from the plate (no trikinetics in the room); disturbed to check for death 2017-11-20 </t>
+  </si>
+  <si>
+    <t>changed water 2017-12-04 10:42</t>
   </si>
 </sst>
 </file>
@@ -1609,10 +1612,10 @@
   <dimension ref="A1:W164"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A165" sqref="A165"/>
+      <selection pane="bottomRight" activeCell="Q162" sqref="Q162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6137,6 +6140,9 @@
       <c r="M159" s="1" t="s">
         <v>264</v>
       </c>
+      <c r="P159" s="1" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="160" spans="1:16">
       <c r="A160" s="1" t="s">

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="24500" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="301">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -789,9 +789,6 @@
     <t>10:40</t>
   </si>
   <si>
-    <t xml:space="preserve">changed water 2017-11-28 9:59 </t>
-  </si>
-  <si>
     <t>2017-11-29</t>
   </si>
   <si>
@@ -873,10 +870,61 @@
     <t xml:space="preserve">12:59 </t>
   </si>
   <si>
-    <t xml:space="preserve">this individual went directly to free run from the plate (no trikinetics in the room); disturbed to check for death 2017-11-20 </t>
-  </si>
-  <si>
-    <t>changed water 2017-12-04 10:42</t>
+    <t>2017-12-05</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>9:37</t>
+  </si>
+  <si>
+    <t>2017-11-26</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frozen </t>
+  </si>
+  <si>
+    <t>2017-11-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">had water but cotton dry, no access to water </t>
+  </si>
+  <si>
+    <t>10:13</t>
+  </si>
+  <si>
+    <t>disturbed to check for death 2017-11-27 10:15; changed water 2017-12-04 10:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changed water 2017-11-27 11:20 </t>
+  </si>
+  <si>
+    <t>2017-11-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">this individual went directly to free run from the plate (no trikinetics in the room); disturbed to check for death 2017-11-20; changed water 2017-11-28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:36 </t>
+  </si>
+  <si>
+    <t>2017-12-01</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changed water 2017-11-28 9:59; changed water 2017-12-02 10:01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">disturbed to check for death 2017-12-03 </t>
   </si>
 </sst>
 </file>
@@ -1609,13 +1657,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W164"/>
+  <dimension ref="A1:W167"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F145" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q162" sqref="Q162"/>
+      <selection pane="bottomRight" activeCell="P159" sqref="P159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4417,7 +4465,7 @@
         <v>253</v>
       </c>
       <c r="V107" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="W107" s="1" t="s">
         <v>251</v>
@@ -4457,8 +4505,14 @@
       <c r="T108" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="U108" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="V108" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="W108" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -4496,10 +4550,10 @@
         <v>183</v>
       </c>
       <c r="U109" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="V109" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="V109" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="W109" s="1" t="s">
         <v>185</v>
@@ -4540,7 +4594,7 @@
         <v>183</v>
       </c>
       <c r="W110" s="1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -5799,13 +5853,13 @@
         <v>229</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P150" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -5884,7 +5938,7 @@
         <v>241</v>
       </c>
       <c r="P152" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -5922,7 +5976,7 @@
         <v>241</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -5959,6 +6013,15 @@
       <c r="M154" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="N154" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="O154" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="P154" s="1" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="155" spans="1:16">
       <c r="A155" s="1" t="s">
@@ -5994,6 +6057,15 @@
       <c r="M155" s="1" t="s">
         <v>236</v>
       </c>
+      <c r="N155" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="O155" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="P155" s="1" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="156" spans="1:16">
       <c r="A156" s="1" t="s">
@@ -6030,10 +6102,10 @@
         <v>236</v>
       </c>
       <c r="N156" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="O156" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="O156" s="1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -6070,6 +6142,9 @@
       <c r="M157" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="P157" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="158" spans="1:16">
       <c r="A158" s="1" t="s">
@@ -6082,10 +6157,10 @@
         <v>137</v>
       </c>
       <c r="D158" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>111</v>
@@ -6103,24 +6178,24 @@
         <v>6</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="159" spans="1:16">
       <c r="A159" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C159" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="E159" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>209</v>
@@ -6138,10 +6213,10 @@
         <v>120</v>
       </c>
       <c r="M159" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P159" s="1" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -6155,10 +6230,10 @@
         <v>33</v>
       </c>
       <c r="D160" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E160" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>111</v>
@@ -6176,10 +6251,13 @@
         <v>120</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13">
+        <v>263</v>
+      </c>
+      <c r="P160" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16">
       <c r="A161" s="1" t="s">
         <v>11</v>
       </c>
@@ -6190,10 +6268,10 @@
         <v>31</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>209</v>
@@ -6211,24 +6289,33 @@
         <v>120</v>
       </c>
       <c r="M161" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13">
+        <v>266</v>
+      </c>
+      <c r="N161" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="P161" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16">
       <c r="A162" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>217</v>
       </c>
       <c r="D162" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E162" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>111</v>
@@ -6246,10 +6333,10 @@
         <v>120</v>
       </c>
       <c r="M162" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16">
       <c r="A163" s="1" t="s">
         <v>163</v>
       </c>
@@ -6260,10 +6347,10 @@
         <v>54</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>144</v>
@@ -6281,10 +6368,19 @@
         <v>120</v>
       </c>
       <c r="M163" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13">
+        <v>263</v>
+      </c>
+      <c r="N163" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="O163" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="P163" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16">
       <c r="A164" s="1" t="s">
         <v>13</v>
       </c>
@@ -6292,13 +6388,13 @@
         <v>10</v>
       </c>
       <c r="C164" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="E164" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>111</v>
@@ -6316,7 +6412,118 @@
         <v>120</v>
       </c>
       <c r="M164" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
+      </c>
+      <c r="N164" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="O164" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16">
+      <c r="A165" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K165" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M165" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16">
+      <c r="A166" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M166" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16">
+      <c r="A167" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M167" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24500" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="308">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -921,10 +921,31 @@
     <t>93</t>
   </si>
   <si>
-    <t xml:space="preserve">changed water 2017-11-28 9:59; changed water 2017-12-02 10:01 </t>
-  </si>
-  <si>
     <t xml:space="preserve">disturbed to check for death 2017-12-03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">changed water 2017-12-05 9:40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">changed water 2017-12-05 9:38 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">changed water 2017-12-06 9:32 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">no water </t>
+  </si>
+  <si>
+    <t>2017-12-07</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>9:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changed water 2017-11-28 9:59; changed water 2017-12-02 10:01; changed water 2017-12-07 9:39 </t>
   </si>
 </sst>
 </file>
@@ -1657,13 +1678,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W167"/>
+  <dimension ref="A1:W168"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F145" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E153" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P159" sqref="P159"/>
+      <selection pane="bottomRight" activeCell="J175" sqref="J175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5902,6 +5923,9 @@
       <c r="O151" s="1" t="s">
         <v>238</v>
       </c>
+      <c r="P151" s="1" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="152" spans="1:16">
       <c r="A152" s="1" t="s">
@@ -5976,7 +6000,7 @@
         <v>241</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -6180,6 +6204,9 @@
       <c r="M158" s="1" t="s">
         <v>257</v>
       </c>
+      <c r="P158" s="1" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="159" spans="1:16">
       <c r="A159" s="1" t="s">
@@ -6254,7 +6281,7 @@
         <v>263</v>
       </c>
       <c r="P160" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -6335,6 +6362,9 @@
       <c r="M162" s="1" t="s">
         <v>266</v>
       </c>
+      <c r="P162" s="1" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="163" spans="1:16">
       <c r="A163" s="1" t="s">
@@ -6490,6 +6520,9 @@
       <c r="M166" s="1" t="s">
         <v>296</v>
       </c>
+      <c r="P166" s="1" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="167" spans="1:16">
       <c r="A167" s="1" t="s">
@@ -6524,6 +6557,41 @@
       </c>
       <c r="M167" s="1" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16">
+      <c r="A168" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K168" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M168" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="24500" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -909,9 +909,6 @@
     <t xml:space="preserve">20:40 </t>
   </si>
   <si>
-    <t xml:space="preserve">this individual went directly to free run from the plate (no trikinetics in the room); disturbed to check for death 2017-11-20; changed water 2017-11-28 </t>
-  </si>
-  <si>
     <t xml:space="preserve">10:36 </t>
   </si>
   <si>
@@ -946,6 +943,9 @@
   </si>
   <si>
     <t xml:space="preserve">changed water 2017-11-28 9:59; changed water 2017-12-02 10:01; changed water 2017-12-07 9:39 </t>
+  </si>
+  <si>
+    <t>this individual went directly to free run from the plate (no trikinetics in the room); disturbed to check for death 2017-11-20; changed water 2017-11-28;changed water 2017-12-10 20:00</t>
   </si>
 </sst>
 </file>
@@ -958,6 +958,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1681,10 +1682,10 @@
   <dimension ref="A1:W168"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E153" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="O203" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J175" sqref="J175"/>
+      <selection pane="bottomRight" activeCell="R113" sqref="R113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4615,7 +4616,7 @@
         <v>183</v>
       </c>
       <c r="W110" s="1" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -5924,7 +5925,7 @@
         <v>238</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -6000,7 +6001,7 @@
         <v>241</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -6205,7 +6206,7 @@
         <v>257</v>
       </c>
       <c r="P158" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -6281,7 +6282,7 @@
         <v>263</v>
       </c>
       <c r="P160" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -6363,7 +6364,7 @@
         <v>266</v>
       </c>
       <c r="P162" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -6497,7 +6498,7 @@
         <v>31</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>219</v>
@@ -6518,10 +6519,10 @@
         <v>120</v>
       </c>
       <c r="M166" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P166" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -6535,10 +6536,10 @@
         <v>70</v>
       </c>
       <c r="D167" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E167" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>111</v>
@@ -6570,10 +6571,10 @@
         <v>115</v>
       </c>
       <c r="D168" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E168" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>144</v>
@@ -6591,7 +6592,7 @@
         <v>6</v>
       </c>
       <c r="M168" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24500" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -942,10 +942,10 @@
     <t>9:29</t>
   </si>
   <si>
-    <t xml:space="preserve">changed water 2017-11-28 9:59; changed water 2017-12-02 10:01; changed water 2017-12-07 9:39 </t>
-  </si>
-  <si>
     <t>this individual went directly to free run from the plate (no trikinetics in the room); disturbed to check for death 2017-11-20; changed water 2017-11-28;changed water 2017-12-10 20:00</t>
+  </si>
+  <si>
+    <t>changed water 2017-11-28 9:59; changed water 2017-12-02 10:01; changed water 2017-12-07 9:39; rearranged position of water tube 2018-01-10 19:20</t>
   </si>
 </sst>
 </file>
@@ -1682,10 +1682,10 @@
   <dimension ref="A1:W168"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="O203" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R113" sqref="R113"/>
+      <selection pane="bottomRight" activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4616,7 +4616,7 @@
         <v>183</v>
       </c>
       <c r="W110" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -6001,7 +6001,7 @@
         <v>241</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="154" spans="1:16">

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="24500" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="314">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -945,7 +945,25 @@
     <t>this individual went directly to free run from the plate (no trikinetics in the room); disturbed to check for death 2017-11-20; changed water 2017-11-28;changed water 2017-12-10 20:00</t>
   </si>
   <si>
-    <t>changed water 2017-11-28 9:59; changed water 2017-12-02 10:01; changed water 2017-12-07 9:39; rearranged position of water tube 2018-01-10 19:20</t>
+    <t>2018-01-11</t>
+  </si>
+  <si>
+    <t>10:44</t>
+  </si>
+  <si>
+    <t>changed water 2017-11-28 9:59; changed water 2017-12-02 10:01; changed water 2017-12-07 9:39; rearranged position of water tube 2018-01-10 19:20; disturbed to check for death 2018-01-11 10:45</t>
+  </si>
+  <si>
+    <t>2017-11-20</t>
+  </si>
+  <si>
+    <t>11:19</t>
+  </si>
+  <si>
+    <t>2018-01-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:40 </t>
   </si>
 </sst>
 </file>
@@ -1682,10 +1700,10 @@
   <dimension ref="A1:W168"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B153" sqref="B153"/>
+      <selection pane="bottomRight" activeCell="O162" sqref="O162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6001,7 +6019,7 @@
         <v>241</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -6243,6 +6261,12 @@
       <c r="M159" s="1" t="s">
         <v>263</v>
       </c>
+      <c r="N159" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="O159" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="P159" s="1" t="s">
         <v>291</v>
       </c>
@@ -6363,6 +6387,12 @@
       <c r="M162" s="1" t="s">
         <v>266</v>
       </c>
+      <c r="N162" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="O162" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="P162" s="1" t="s">
         <v>301</v>
       </c>
@@ -6558,6 +6588,12 @@
       </c>
       <c r="M167" s="1" t="s">
         <v>173</v>
+      </c>
+      <c r="N167" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="O167" s="1" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="168" spans="1:16">

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="316">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -964,6 +964,12 @@
   </si>
   <si>
     <t xml:space="preserve">10:40 </t>
+  </si>
+  <si>
+    <t>2018-01-12</t>
+  </si>
+  <si>
+    <t>19:15</t>
   </si>
 </sst>
 </file>
@@ -1700,10 +1706,10 @@
   <dimension ref="A1:W168"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="L140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O162" sqref="O162"/>
+      <selection pane="bottomRight" activeCell="T157" sqref="T157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6185,6 +6191,12 @@
       <c r="M157" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="N157" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="O157" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="P157" s="1" t="s">
         <v>292</v>
       </c>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24500" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="318">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -970,6 +970,12 @@
   </si>
   <si>
     <t>19:15</t>
+  </si>
+  <si>
+    <t>2018-01-15</t>
+  </si>
+  <si>
+    <t>13:13</t>
   </si>
 </sst>
 </file>
@@ -1706,10 +1712,10 @@
   <dimension ref="A1:W168"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T157" sqref="T157"/>
+      <selection pane="bottomRight" activeCell="P158" sqref="P158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6235,6 +6241,12 @@
       <c r="M158" s="1" t="s">
         <v>257</v>
       </c>
+      <c r="N158" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="O158" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="P158" s="1" t="s">
         <v>300</v>
       </c>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24760" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="322">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -976,6 +976,18 @@
   </si>
   <si>
     <t>13:13</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>2018-01-22</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>13:34</t>
   </si>
 </sst>
 </file>
@@ -1709,13 +1721,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W168"/>
+  <dimension ref="A1:W169"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P158" sqref="P158"/>
+      <selection pane="bottomRight" activeCell="M170" sqref="M170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6655,6 +6667,41 @@
         <v>305</v>
       </c>
     </row>
+    <row r="169" spans="1:16">
+      <c r="A169" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K169" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M169" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H122"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24760" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="24180" windowHeight="15040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="327">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -921,9 +921,6 @@
     <t xml:space="preserve">disturbed to check for death 2017-12-03 </t>
   </si>
   <si>
-    <t xml:space="preserve">changed water 2017-12-05 9:40 </t>
-  </si>
-  <si>
     <t xml:space="preserve">changed water 2017-12-05 9:38 </t>
   </si>
   <si>
@@ -951,9 +948,6 @@
     <t>10:44</t>
   </si>
   <si>
-    <t>changed water 2017-11-28 9:59; changed water 2017-12-02 10:01; changed water 2017-12-07 9:39; rearranged position of water tube 2018-01-10 19:20; disturbed to check for death 2018-01-11 10:45</t>
-  </si>
-  <si>
     <t>2017-11-20</t>
   </si>
   <si>
@@ -988,6 +982,27 @@
   </si>
   <si>
     <t>13:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unknown </t>
+  </si>
+  <si>
+    <t>2018-02-02</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>13:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changed water 2017-12-05 9:40; distubed to check for death 2018-02-02 12:57; disturbed to check for death 2018-02-04 8:46 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">changed water 2017-11-28 9:59; changed water 2017-12-02 10:01; changed water 2017-12-07 9:39; rearranged position of water tube 2018-01-10 19:20; disturbed to check for death 2018-01-11 10:45; changed water 2018-02-02 13:29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">changed water 2018-02-02 13:33 </t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1015,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1721,13 +1736,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W169"/>
+  <dimension ref="A1:W170"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M170" sqref="M170"/>
+      <selection pane="bottomRight" activeCell="P165" sqref="P165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4658,7 +4673,7 @@
         <v>183</v>
       </c>
       <c r="W110" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -5967,7 +5982,7 @@
         <v>238</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -6043,7 +6058,7 @@
         <v>241</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -6210,10 +6225,10 @@
         <v>254</v>
       </c>
       <c r="N157" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P157" s="1" t="s">
         <v>292</v>
@@ -6254,13 +6269,13 @@
         <v>257</v>
       </c>
       <c r="N158" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O158" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P158" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -6298,10 +6313,10 @@
         <v>263</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O159" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P159" s="1" t="s">
         <v>291</v>
@@ -6424,13 +6439,13 @@
         <v>266</v>
       </c>
       <c r="N162" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="O162" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="O162" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="P162" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -6552,6 +6567,9 @@
       <c r="M165" s="1" t="s">
         <v>284</v>
       </c>
+      <c r="P165" s="1" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="166" spans="1:16">
       <c r="A166" s="1" t="s">
@@ -6588,7 +6606,7 @@
         <v>295</v>
       </c>
       <c r="P166" s="1" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -6626,10 +6644,10 @@
         <v>173</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O167" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -6643,10 +6661,10 @@
         <v>115</v>
       </c>
       <c r="D168" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E168" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>144</v>
@@ -6664,7 +6682,7 @@
         <v>6</v>
       </c>
       <c r="M168" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -6675,13 +6693,13 @@
         <v>10</v>
       </c>
       <c r="C169" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E169" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>111</v>
@@ -6699,7 +6717,42 @@
         <v>6</v>
       </c>
       <c r="M169" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16">
+      <c r="A170" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>321</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M170" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -999,10 +999,10 @@
     <t xml:space="preserve">changed water 2017-12-05 9:40; distubed to check for death 2018-02-02 12:57; disturbed to check for death 2018-02-04 8:46 </t>
   </si>
   <si>
-    <t xml:space="preserve">changed water 2017-11-28 9:59; changed water 2017-12-02 10:01; changed water 2017-12-07 9:39; rearranged position of water tube 2018-01-10 19:20; disturbed to check for death 2018-01-11 10:45; changed water 2018-02-02 13:29 </t>
-  </si>
-  <si>
     <t xml:space="preserve">changed water 2018-02-02 13:33 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">changed water 2017-11-28 9:59; changed water 2017-12-02 10:01; changed water 2017-12-07 9:39; rearranged position of water tube 2018-01-10 19:20; disturbed to check for death 2018-01-11 10:45; changed water 2018-02-02 13:29; 2018-02-07 disturbed (alive but inbetween water and cotton) 13:05 </t>
   </si>
 </sst>
 </file>
@@ -1739,10 +1739,10 @@
   <dimension ref="A1:W170"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F170" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P165" sqref="P165"/>
+      <selection pane="bottomRight" activeCell="O169" sqref="O169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6058,7 +6058,7 @@
         <v>241</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -6568,7 +6568,7 @@
         <v>284</v>
       </c>
       <c r="P165" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="166" spans="1:16">

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="24180" windowHeight="15040" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="24500" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="330">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1003,6 +1003,15 @@
   </si>
   <si>
     <t xml:space="preserve">changed water 2017-11-28 9:59; changed water 2017-12-02 10:01; changed water 2017-12-07 9:39; rearranged position of water tube 2018-01-10 19:20; disturbed to check for death 2018-01-11 10:45; changed water 2018-02-02 13:29; 2018-02-07 disturbed (alive but inbetween water and cotton) 13:05 </t>
+  </si>
+  <si>
+    <t>2018-02-10</t>
+  </si>
+  <si>
+    <t>19:50</t>
+  </si>
+  <si>
+    <t>19:51</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1024,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1739,10 +1747,10 @@
   <dimension ref="A1:W170"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F170" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F153" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O169" sqref="O169"/>
+      <selection pane="bottomRight" activeCell="P170" sqref="P170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6567,6 +6575,12 @@
       <c r="M165" s="1" t="s">
         <v>284</v>
       </c>
+      <c r="N165" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="O165" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="P165" s="1" t="s">
         <v>325</v>
       </c>
@@ -6753,6 +6767,12 @@
       </c>
       <c r="M170" s="1" t="s">
         <v>323</v>
+      </c>
+      <c r="N170" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="O170" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -918,9 +918,6 @@
     <t>93</t>
   </si>
   <si>
-    <t xml:space="preserve">disturbed to check for death 2017-12-03 </t>
-  </si>
-  <si>
     <t xml:space="preserve">changed water 2017-12-05 9:38 </t>
   </si>
   <si>
@@ -996,9 +993,6 @@
     <t>13:28</t>
   </si>
   <si>
-    <t xml:space="preserve">changed water 2017-12-05 9:40; distubed to check for death 2018-02-02 12:57; disturbed to check for death 2018-02-04 8:46 </t>
-  </si>
-  <si>
     <t xml:space="preserve">changed water 2018-02-02 13:33 </t>
   </si>
   <si>
@@ -1012,6 +1006,12 @@
   </si>
   <si>
     <t>19:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disturbed to check for death 2017-12-03; changed water 2018-02-13 14:02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">changed water 2017-12-05 9:40; distubed to check for death 2018-02-02 12:57; disturbed to check for death 2018-02-04 8:46; disturbed to check for death 2018-02-13 13:12; changed water 2018-02-13 14:04; changed water 2018-02-13 14:09 </t>
   </si>
 </sst>
 </file>
@@ -1747,10 +1747,10 @@
   <dimension ref="A1:W170"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F153" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P170" sqref="P170"/>
+      <selection pane="bottomRight" activeCell="P166" sqref="P166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4681,7 +4681,7 @@
         <v>183</v>
       </c>
       <c r="W110" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -5990,7 +5990,7 @@
         <v>238</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -6066,7 +6066,7 @@
         <v>241</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -6233,10 +6233,10 @@
         <v>254</v>
       </c>
       <c r="N157" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="O157" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="O157" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="P157" s="1" t="s">
         <v>292</v>
@@ -6277,13 +6277,13 @@
         <v>257</v>
       </c>
       <c r="N158" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="O158" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="O158" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="P158" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -6321,10 +6321,10 @@
         <v>263</v>
       </c>
       <c r="N159" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="O159" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="O159" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="P159" s="1" t="s">
         <v>291</v>
@@ -6365,7 +6365,7 @@
         <v>263</v>
       </c>
       <c r="P160" s="1" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -6447,13 +6447,13 @@
         <v>266</v>
       </c>
       <c r="N162" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="O162" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="O162" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="P162" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -6576,13 +6576,13 @@
         <v>284</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="P165" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -6620,7 +6620,7 @@
         <v>295</v>
       </c>
       <c r="P166" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -6658,10 +6658,10 @@
         <v>173</v>
       </c>
       <c r="N167" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="O167" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="O167" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -6675,10 +6675,10 @@
         <v>115</v>
       </c>
       <c r="D168" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E168" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>144</v>
@@ -6696,7 +6696,7 @@
         <v>6</v>
       </c>
       <c r="M168" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -6707,13 +6707,13 @@
         <v>10</v>
       </c>
       <c r="C169" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="E169" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>111</v>
@@ -6731,7 +6731,7 @@
         <v>6</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -6742,13 +6742,13 @@
         <v>62</v>
       </c>
       <c r="C170" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>111</v>
@@ -6766,13 +6766,13 @@
         <v>6</v>
       </c>
       <c r="M170" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N170" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="O170" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="O170" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24500" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -996,9 +996,6 @@
     <t xml:space="preserve">changed water 2018-02-02 13:33 </t>
   </si>
   <si>
-    <t xml:space="preserve">changed water 2017-11-28 9:59; changed water 2017-12-02 10:01; changed water 2017-12-07 9:39; rearranged position of water tube 2018-01-10 19:20; disturbed to check for death 2018-01-11 10:45; changed water 2018-02-02 13:29; 2018-02-07 disturbed (alive but inbetween water and cotton) 13:05 </t>
-  </si>
-  <si>
     <t>2018-02-10</t>
   </si>
   <si>
@@ -1012,6 +1009,9 @@
   </si>
   <si>
     <t xml:space="preserve">changed water 2017-12-05 9:40; distubed to check for death 2018-02-02 12:57; disturbed to check for death 2018-02-04 8:46; disturbed to check for death 2018-02-13 13:12; changed water 2018-02-13 14:04; changed water 2018-02-13 14:09 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">changed water 2017-11-28 9:59; changed water 2017-12-02 10:01; changed water 2017-12-07 9:39; rearranged position of water tube 2018-01-10 19:20; disturbed to check for death 2018-01-11 10:45; changed water 2018-02-02 13:29; 2018-02-07 disturbed (alive but inbetween water and cotton) 13:05; 2018-02-16 disturbed 13:19  </t>
   </si>
 </sst>
 </file>
@@ -1747,10 +1747,10 @@
   <dimension ref="A1:W170"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P166" sqref="P166"/>
+      <selection pane="bottomRight" activeCell="P153" sqref="P153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6066,7 +6066,7 @@
         <v>241</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -6365,7 +6365,7 @@
         <v>263</v>
       </c>
       <c r="P160" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -6576,10 +6576,10 @@
         <v>284</v>
       </c>
       <c r="N165" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="O165" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="O165" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="P165" s="1" t="s">
         <v>323</v>
@@ -6620,7 +6620,7 @@
         <v>295</v>
       </c>
       <c r="P166" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -6769,10 +6769,10 @@
         <v>322</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O170" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="332">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -936,9 +936,6 @@
     <t>9:29</t>
   </si>
   <si>
-    <t>this individual went directly to free run from the plate (no trikinetics in the room); disturbed to check for death 2017-11-20; changed water 2017-11-28;changed water 2017-12-10 20:00</t>
-  </si>
-  <si>
     <t>2018-01-11</t>
   </si>
   <si>
@@ -1012,6 +1009,15 @@
   </si>
   <si>
     <t xml:space="preserve">changed water 2017-11-28 9:59; changed water 2017-12-02 10:01; changed water 2017-12-07 9:39; rearranged position of water tube 2018-01-10 19:20; disturbed to check for death 2018-01-11 10:45; changed water 2018-02-02 13:29; 2018-02-07 disturbed (alive but inbetween water and cotton) 13:05; 2018-02-16 disturbed 13:19  </t>
+  </si>
+  <si>
+    <t>2018-02-15</t>
+  </si>
+  <si>
+    <t>20:01</t>
+  </si>
+  <si>
+    <t>this individual went directly to free run from the plate (no trikinetics in the room); disturbed to check for death 2017-11-20; changed water 2017-11-28;changed water 2017-12-10 20:00; dsturbed 2018-01-29 20:02; disturbed 2018-02-02 20:03; disturbed 2018-02-10 20:01</t>
   </si>
 </sst>
 </file>
@@ -1747,10 +1753,10 @@
   <dimension ref="A1:W170"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="U92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P153" sqref="P153"/>
+      <selection pane="bottomRight" activeCell="Z108" sqref="Z108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4680,8 +4686,14 @@
       <c r="T110" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="U110" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="V110" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="W110" s="1" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -6066,7 +6078,7 @@
         <v>241</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -6233,10 +6245,10 @@
         <v>254</v>
       </c>
       <c r="N157" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="O157" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="O157" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="P157" s="1" t="s">
         <v>292</v>
@@ -6277,10 +6289,10 @@
         <v>257</v>
       </c>
       <c r="N158" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="O158" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="O158" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="P158" s="1" t="s">
         <v>298</v>
@@ -6321,10 +6333,10 @@
         <v>263</v>
       </c>
       <c r="N159" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="O159" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="O159" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="P159" s="1" t="s">
         <v>291</v>
@@ -6365,7 +6377,7 @@
         <v>263</v>
       </c>
       <c r="P160" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -6447,10 +6459,10 @@
         <v>266</v>
       </c>
       <c r="N162" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="O162" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="O162" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="P162" s="1" t="s">
         <v>299</v>
@@ -6576,13 +6588,13 @@
         <v>284</v>
       </c>
       <c r="N165" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="O165" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="O165" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="P165" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -6620,7 +6632,7 @@
         <v>295</v>
       </c>
       <c r="P166" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -6658,10 +6670,10 @@
         <v>173</v>
       </c>
       <c r="N167" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="O167" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="O167" s="1" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -6707,13 +6719,13 @@
         <v>10</v>
       </c>
       <c r="C169" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="E169" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>111</v>
@@ -6731,7 +6743,7 @@
         <v>6</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -6742,13 +6754,13 @@
         <v>62</v>
       </c>
       <c r="C170" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>111</v>
@@ -6766,13 +6778,13 @@
         <v>6</v>
       </c>
       <c r="M170" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O170" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -1008,9 +1008,6 @@
     <t xml:space="preserve">changed water 2017-12-05 9:40; distubed to check for death 2018-02-02 12:57; disturbed to check for death 2018-02-04 8:46; disturbed to check for death 2018-02-13 13:12; changed water 2018-02-13 14:04; changed water 2018-02-13 14:09 </t>
   </si>
   <si>
-    <t xml:space="preserve">changed water 2017-11-28 9:59; changed water 2017-12-02 10:01; changed water 2017-12-07 9:39; rearranged position of water tube 2018-01-10 19:20; disturbed to check for death 2018-01-11 10:45; changed water 2018-02-02 13:29; 2018-02-07 disturbed (alive but inbetween water and cotton) 13:05; 2018-02-16 disturbed 13:19  </t>
-  </si>
-  <si>
     <t>2018-02-15</t>
   </si>
   <si>
@@ -1018,6 +1015,9 @@
   </si>
   <si>
     <t>this individual went directly to free run from the plate (no trikinetics in the room); disturbed to check for death 2017-11-20; changed water 2017-11-28;changed water 2017-12-10 20:00; dsturbed 2018-01-29 20:02; disturbed 2018-02-02 20:03; disturbed 2018-02-10 20:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changed water 2017-11-28 9:59; changed water 2017-12-02 10:01; changed water 2017-12-07 9:39; rearranged position of water tube 2018-01-10 19:20; disturbed to check for death 2018-01-11 10:45; changed water 2018-02-02 13:29; 2018-02-07 disturbed (alive but inbetween water and cotton) 13:05; 2018-02-16 disturbed 13:19; 2018-02-22 changed water 10:47  </t>
   </si>
 </sst>
 </file>
@@ -1753,10 +1753,10 @@
   <dimension ref="A1:W170"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="U92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E152" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z108" sqref="Z108"/>
+      <selection pane="bottomRight" activeCell="J179" sqref="J179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4687,13 +4687,13 @@
         <v>183</v>
       </c>
       <c r="U110" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="V110" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="V110" s="1" t="s">
+      <c r="W110" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="W110" s="1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -6078,7 +6078,7 @@
         <v>241</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="154" spans="1:16">

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="24500" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="336">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1018,6 +1018,18 @@
   </si>
   <si>
     <t xml:space="preserve">changed water 2017-11-28 9:59; changed water 2017-12-02 10:01; changed water 2017-12-07 9:39; rearranged position of water tube 2018-01-10 19:20; disturbed to check for death 2018-01-11 10:45; changed water 2018-02-02 13:29; 2018-02-07 disturbed (alive but inbetween water and cotton) 13:05; 2018-02-16 disturbed 13:19; 2018-02-22 changed water 10:47  </t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>18:57</t>
+  </si>
+  <si>
+    <t>2018-02-25</t>
   </si>
 </sst>
 </file>
@@ -1750,13 +1762,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W170"/>
+  <dimension ref="A1:W171"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E152" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D152" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J179" sqref="J179"/>
+      <selection pane="bottomRight" activeCell="E175" sqref="E175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6787,6 +6799,41 @@
         <v>325</v>
       </c>
     </row>
+    <row r="171" spans="1:16">
+      <c r="A171" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K171" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M171" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H122"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="339">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1017,9 +1017,6 @@
     <t>this individual went directly to free run from the plate (no trikinetics in the room); disturbed to check for death 2017-11-20; changed water 2017-11-28;changed water 2017-12-10 20:00; dsturbed 2018-01-29 20:02; disturbed 2018-02-02 20:03; disturbed 2018-02-10 20:01</t>
   </si>
   <si>
-    <t xml:space="preserve">changed water 2017-11-28 9:59; changed water 2017-12-02 10:01; changed water 2017-12-07 9:39; rearranged position of water tube 2018-01-10 19:20; disturbed to check for death 2018-01-11 10:45; changed water 2018-02-02 13:29; 2018-02-07 disturbed (alive but inbetween water and cotton) 13:05; 2018-02-16 disturbed 13:19; 2018-02-22 changed water 10:47  </t>
-  </si>
-  <si>
     <t>156</t>
   </si>
   <si>
@@ -1030,13 +1027,25 @@
   </si>
   <si>
     <t>2018-02-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:49 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stuck in cotton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">changed water 2017-11-28 9:59; changed water 2017-12-02 10:01; changed water 2017-12-07 9:39; rearranged position of water tube 2018-01-10 19:20; disturbed to check for death 2018-01-11 10:45; changed water 2018-02-02 13:29; 2018-02-07 disturbed (alive but inbetween water and cotton) 13:05; 2018-02-16 disturbed 13:19; 2018-02-22 changed water 10:47; 2018-02-26 changed food 13:25 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1063,6 +1072,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1765,10 +1780,10 @@
   <dimension ref="A1:W171"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D152" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F150" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E175" sqref="E175"/>
+      <selection pane="bottomRight" activeCell="G174" sqref="G174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6090,7 +6105,7 @@
         <v>241</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -6807,13 +6822,13 @@
         <v>6</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>144</v>
@@ -6831,11 +6846,21 @@
         <v>6</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
+      </c>
+      <c r="N171" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="O171" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="P171" s="1" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H122"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24500" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1038,7 +1038,7 @@
     <t xml:space="preserve">stuck in cotton </t>
   </si>
   <si>
-    <t xml:space="preserve">changed water 2017-11-28 9:59; changed water 2017-12-02 10:01; changed water 2017-12-07 9:39; rearranged position of water tube 2018-01-10 19:20; disturbed to check for death 2018-01-11 10:45; changed water 2018-02-02 13:29; 2018-02-07 disturbed (alive but inbetween water and cotton) 13:05; 2018-02-16 disturbed 13:19; 2018-02-22 changed water 10:47; 2018-02-26 changed food 13:25 </t>
+    <t xml:space="preserve">changed water 2017-11-28 9:59; changed water 2017-12-02 10:01; changed water 2017-12-07 9:39; rearranged position of water tube 2018-01-10 19:20; disturbed to check for death 2018-01-11 10:45; changed water 2018-02-02 13:29; 2018-02-07 disturbed (alive but inbetween water and cotton) 13:05; 2018-02-16 disturbed 13:19; 2018-02-22 changed water 10:47; 2018-02-26 changed food 13:25; 2018-02-28 disturbed 12:50 </t>
   </si>
 </sst>
 </file>
@@ -1780,10 +1780,10 @@
   <dimension ref="A1:W171"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G151" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G174" sqref="G174"/>
+      <selection pane="bottomRight" activeCell="P154" sqref="P154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="24500" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="342">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1039,6 +1039,15 @@
   </si>
   <si>
     <t xml:space="preserve">changed water 2017-11-28 9:59; changed water 2017-12-02 10:01; changed water 2017-12-07 9:39; rearranged position of water tube 2018-01-10 19:20; disturbed to check for death 2018-01-11 10:45; changed water 2018-02-02 13:29; 2018-02-07 disturbed (alive but inbetween water and cotton) 13:05; 2018-02-16 disturbed 13:19; 2018-02-22 changed water 10:47; 2018-02-26 changed food 13:25; 2018-02-28 disturbed 12:50 </t>
+  </si>
+  <si>
+    <t>2018-03-01</t>
+  </si>
+  <si>
+    <t>11:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184 </t>
   </si>
 </sst>
 </file>
@@ -1777,13 +1786,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W171"/>
+  <dimension ref="A1:W172"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G151" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D160" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P154" sqref="P154"/>
+      <selection pane="bottomRight" activeCell="F186" sqref="F186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6858,6 +6867,41 @@
         <v>337</v>
       </c>
     </row>
+    <row r="172" spans="1:16">
+      <c r="A172" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K172" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M172" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H122"/>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -1789,7 +1789,7 @@
   <dimension ref="A1:W172"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D160" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D127" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F186" sqref="F186"/>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24500" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24780" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="344">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1048,6 +1048,12 @@
   </si>
   <si>
     <t xml:space="preserve">184 </t>
+  </si>
+  <si>
+    <t>2018-03-02</t>
+  </si>
+  <si>
+    <t>19:28</t>
   </si>
 </sst>
 </file>
@@ -1789,10 +1795,10 @@
   <dimension ref="A1:W172"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D127" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D152" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F186" sqref="F186"/>
+      <selection pane="bottomRight" activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6113,6 +6119,12 @@
       <c r="M153" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="N153" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="O153" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="P153" s="1" t="s">
         <v>338</v>
       </c>
@@ -6900,6 +6912,15 @@
       </c>
       <c r="M172" s="1" t="s">
         <v>340</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="O172" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="P172" s="1" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="346">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1054,6 +1054,12 @@
   </si>
   <si>
     <t>19:28</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smashed between water opening and tube </t>
   </si>
 </sst>
 </file>
@@ -1285,7 +1291,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1303,6 +1309,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="159">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1792,13 +1809,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W172"/>
+  <dimension ref="A1:W173"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D152" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D167" sqref="D167"/>
+      <selection pane="bottomRight" activeCell="O173" sqref="O173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6428,7 +6445,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:19">
       <c r="A161" s="1" t="s">
         <v>11</v>
       </c>
@@ -6472,7 +6489,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:19">
       <c r="A162" s="1" t="s">
         <v>61</v>
       </c>
@@ -6516,7 +6533,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:19">
       <c r="A163" s="1" t="s">
         <v>163</v>
       </c>
@@ -6560,7 +6577,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:19">
       <c r="A164" s="1" t="s">
         <v>13</v>
       </c>
@@ -6601,7 +6618,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:19">
       <c r="A165" s="1" t="s">
         <v>13</v>
       </c>
@@ -6645,7 +6662,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:19">
       <c r="A166" s="1" t="s">
         <v>163</v>
       </c>
@@ -6683,7 +6700,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:19">
       <c r="A167" s="1" t="s">
         <v>13</v>
       </c>
@@ -6724,7 +6741,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:19">
       <c r="A168" s="1" t="s">
         <v>163</v>
       </c>
@@ -6759,7 +6776,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:19">
       <c r="A169" s="1" t="s">
         <v>13</v>
       </c>
@@ -6794,7 +6811,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:19">
       <c r="A170" s="1" t="s">
         <v>61</v>
       </c>
@@ -6835,7 +6852,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" spans="1:19">
       <c r="A171" s="1" t="s">
         <v>163</v>
       </c>
@@ -6879,7 +6896,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:19">
       <c r="A172" s="1" t="s">
         <v>11</v>
       </c>
@@ -6922,6 +6939,55 @@
       <c r="P172" s="1" t="s">
         <v>337</v>
       </c>
+    </row>
+    <row r="173" spans="1:19">
+      <c r="A173" s="9">
+        <v>43000</v>
+      </c>
+      <c r="B173" s="11">
+        <v>1</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D173" s="12">
+        <v>43176</v>
+      </c>
+      <c r="E173" s="11">
+        <v>28</v>
+      </c>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H173" s="10"/>
+      <c r="I173" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="J173" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="K173" s="11">
+        <v>5</v>
+      </c>
+      <c r="L173" s="11">
+        <v>2</v>
+      </c>
+      <c r="M173" s="13">
+        <v>0.85486111111111107</v>
+      </c>
+      <c r="N173" s="12">
+        <v>43179</v>
+      </c>
+      <c r="O173" s="13">
+        <v>0.54236111111111118</v>
+      </c>
+      <c r="P173" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q173" s="10"/>
+      <c r="R173" s="10"/>
+      <c r="S173" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H122"/>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24780" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="24020" windowHeight="14880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="348">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1005,9 +1005,6 @@
     <t xml:space="preserve">disturbed to check for death 2017-12-03; changed water 2018-02-13 14:02 </t>
   </si>
   <si>
-    <t xml:space="preserve">changed water 2017-12-05 9:40; distubed to check for death 2018-02-02 12:57; disturbed to check for death 2018-02-04 8:46; disturbed to check for death 2018-02-13 13:12; changed water 2018-02-13 14:04; changed water 2018-02-13 14:09 </t>
-  </si>
-  <si>
     <t>2018-02-15</t>
   </si>
   <si>
@@ -1060,6 +1057,15 @@
   </si>
   <si>
     <t xml:space="preserve">smashed between water opening and tube </t>
+  </si>
+  <si>
+    <t>2018-04-03</t>
+  </si>
+  <si>
+    <t>14:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changed water 2017-12-05 9:40; distubed to check for death 2018-02-02 12:57; disturbed to check for death 2018-02-04 8:46; disturbed to check for death 2018-02-13 13:12; changed water 2018-02-13 14:04; changed water 2018-02-13 14:09; was dead for a while but didn't remove right away </t>
   </si>
 </sst>
 </file>
@@ -1291,7 +1297,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1319,6 +1325,9 @@
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="159">
@@ -1815,7 +1824,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="H146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O173" sqref="O173"/>
+      <selection pane="bottomRight" activeCell="O174" sqref="O174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4746,13 +4755,13 @@
         <v>183</v>
       </c>
       <c r="U110" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="V110" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="V110" s="1" t="s">
+      <c r="W110" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="W110" s="1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -6137,13 +6146,13 @@
         <v>241</v>
       </c>
       <c r="N153" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="O153" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="O153" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="P153" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -6696,8 +6705,14 @@
       <c r="M166" s="1" t="s">
         <v>295</v>
       </c>
+      <c r="N166" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="O166" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="P166" s="1" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
     </row>
     <row r="167" spans="1:19">
@@ -6860,13 +6875,13 @@
         <v>6</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>144</v>
@@ -6884,16 +6899,16 @@
         <v>6</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N171" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="O171" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="O171" s="1" t="s">
+      <c r="P171" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="P171" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="172" spans="1:19">
@@ -6907,10 +6922,10 @@
         <v>21</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>111</v>
@@ -6928,16 +6943,16 @@
         <v>6</v>
       </c>
       <c r="M172" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O172" s="1" t="s">
         <v>188</v>
       </c>
       <c r="P172" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="173" spans="1:19">
@@ -6962,7 +6977,7 @@
       </c>
       <c r="H173" s="10"/>
       <c r="I173" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J173" s="10" t="s">
         <v>203</v>
@@ -6983,7 +6998,7 @@
         <v>0.54236111111111118</v>
       </c>
       <c r="P173" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q173" s="10"/>
       <c r="R173" s="10"/>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="24020" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="349">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1066,6 +1066,9 @@
   </si>
   <si>
     <t xml:space="preserve">changed water 2017-12-05 9:40; distubed to check for death 2018-02-02 12:57; disturbed to check for death 2018-02-04 8:46; disturbed to check for death 2018-02-13 13:12; changed water 2018-02-13 14:04; changed water 2018-02-13 14:09; was dead for a while but didn't remove right away </t>
+  </si>
+  <si>
+    <t xml:space="preserve">changed water 2019-04-09 13:20 </t>
   </si>
 </sst>
 </file>
@@ -1821,10 +1824,10 @@
   <dimension ref="A1:W173"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H146" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G139" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O174" sqref="O174"/>
+      <selection pane="bottomRight" activeCell="O169" sqref="O169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6825,6 +6828,9 @@
       <c r="M169" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="P169" s="1" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="170" spans="1:19">
       <c r="A170" s="1" t="s">

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="24260" windowHeight="15120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="351">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1069,6 +1069,12 @@
   </si>
   <si>
     <t xml:space="preserve">changed water 2019-04-09 13:20 </t>
+  </si>
+  <si>
+    <t>2018-04-14</t>
+  </si>
+  <si>
+    <t>19:10</t>
   </si>
 </sst>
 </file>
@@ -1821,13 +1827,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W173"/>
+  <dimension ref="A1:W174"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G139" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D149" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O169" sqref="O169"/>
+      <selection pane="bottomRight" activeCell="M175" sqref="M175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7010,6 +7016,41 @@
       <c r="R173" s="10"/>
       <c r="S173" s="10"/>
     </row>
+    <row r="174" spans="1:19">
+      <c r="A174" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K174" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M174" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H122"/>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="24260" windowHeight="15120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="353">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1075,6 +1075,12 @@
   </si>
   <si>
     <t>19:10</t>
+  </si>
+  <si>
+    <t>2018-04-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partially eclosed 2018-04-19 </t>
   </si>
 </sst>
 </file>
@@ -1087,6 +1093,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1827,13 +1834,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W174"/>
+  <dimension ref="A1:W175"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D149" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G157" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M175" sqref="M175"/>
+      <selection pane="bottomRight" activeCell="P175" sqref="P175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7051,6 +7058,35 @@
         <v>350</v>
       </c>
     </row>
+    <row r="175" spans="1:19">
+      <c r="A175" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="P175" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H122"/>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="24260" windowHeight="15120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="363">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1081,6 +1081,36 @@
   </si>
   <si>
     <t xml:space="preserve">partially eclosed 2018-04-19 </t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>2018-04-20</t>
+  </si>
+  <si>
+    <t>19:55</t>
+  </si>
+  <si>
+    <t>2018-04-21</t>
+  </si>
+  <si>
+    <t>18:36</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>19:30</t>
+  </si>
+  <si>
+    <t>2018-04-23</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>13:23</t>
   </si>
 </sst>
 </file>
@@ -1152,8 +1182,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="159">
+  <cellStyleXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1346,7 +1392,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="159">
+  <cellStyles count="175">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1426,6 +1472,14 @@
     <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1505,6 +1559,14 @@
     <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1834,13 +1896,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W175"/>
+  <dimension ref="A1:W179"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G157" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D157" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P175" sqref="P175"/>
+      <selection pane="bottomRight" activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6841,6 +6903,12 @@
       <c r="M169" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="N169" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="O169" s="1" t="s">
+        <v>357</v>
+      </c>
       <c r="P169" s="1" t="s">
         <v>348</v>
       </c>
@@ -7085,6 +7153,146 @@
       </c>
       <c r="P175" s="1" t="s">
         <v>352</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19">
+      <c r="A176" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L176" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M176" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
+      <c r="A177" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M177" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
+      <c r="A178" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K178" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L178" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M178" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
+      <c r="A179" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="L179" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M179" s="1" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="24260" windowHeight="15120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="365">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1111,6 +1111,12 @@
   </si>
   <si>
     <t>13:23</t>
+  </si>
+  <si>
+    <t>2018-04-27</t>
+  </si>
+  <si>
+    <t>18:47</t>
   </si>
 </sst>
 </file>
@@ -1896,13 +1902,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W179"/>
+  <dimension ref="A1:W180"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D157" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E171" sqref="E171"/>
+      <selection pane="bottomRight" activeCell="M181" sqref="M181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7295,6 +7301,41 @@
         <v>362</v>
       </c>
     </row>
+    <row r="180" spans="1:13">
+      <c r="A180" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K180" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L180" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M180" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H122"/>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="24260" windowHeight="15120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="366">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1117,6 +1117,9 @@
   </si>
   <si>
     <t>18:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">helped to remove from water tube entrance 2018-04-29 11:12 </t>
   </si>
 </sst>
 </file>
@@ -1905,10 +1908,10 @@
   <dimension ref="A1:W180"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D157" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F157" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M181" sqref="M181"/>
+      <selection pane="bottomRight" activeCell="N183" sqref="N183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7196,7 +7199,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:16">
       <c r="A177" s="1" t="s">
         <v>163</v>
       </c>
@@ -7230,8 +7233,11 @@
       <c r="M177" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="178" spans="1:13">
+      <c r="P177" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16">
       <c r="A178" s="1" t="s">
         <v>163</v>
       </c>
@@ -7266,7 +7272,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:16">
       <c r="A179" s="1" t="s">
         <v>163</v>
       </c>
@@ -7301,7 +7307,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:16">
       <c r="A180" s="1" t="s">
         <v>163</v>
       </c>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="24260" windowHeight="15120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="368">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1120,6 +1120,12 @@
   </si>
   <si>
     <t xml:space="preserve">helped to remove from water tube entrance 2018-04-29 11:12 </t>
+  </si>
+  <si>
+    <t>2018-05-02</t>
+  </si>
+  <si>
+    <t>19:57</t>
   </si>
 </sst>
 </file>
@@ -1905,13 +1911,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W180"/>
+  <dimension ref="A1:W181"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F157" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D154" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N183" sqref="N183"/>
+      <selection pane="bottomRight" activeCell="M182" sqref="M182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7342,6 +7348,41 @@
         <v>364</v>
       </c>
     </row>
+    <row r="181" spans="1:16">
+      <c r="A181" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L181" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M181" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H122"/>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="24260" windowHeight="15120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="371">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1126,6 +1126,15 @@
   </si>
   <si>
     <t>19:57</t>
+  </si>
+  <si>
+    <t>2018-05-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:09 </t>
+  </si>
+  <si>
+    <t>eclosed in between cells C/D 9/10</t>
   </si>
 </sst>
 </file>
@@ -1197,8 +1206,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="175">
+  <cellStyleXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1407,7 +1420,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="175">
+  <cellStyles count="179">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1495,6 +1508,8 @@
     <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1582,6 +1597,8 @@
     <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1911,13 +1928,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W181"/>
+  <dimension ref="A1:W182"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D154" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="F167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M182" sqref="M182"/>
+      <selection pane="bottomRight" activeCell="O188" sqref="O188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7383,6 +7400,44 @@
         <v>367</v>
       </c>
     </row>
+    <row r="182" spans="1:16">
+      <c r="A182" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L182" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M182" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="P182" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H122"/>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="24260" windowHeight="15120" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="24500" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="373">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1135,6 +1135,12 @@
   </si>
   <si>
     <t>eclosed in between cells C/D 9/10</t>
+  </si>
+  <si>
+    <t>2018-05-04</t>
+  </si>
+  <si>
+    <t>20:20</t>
   </si>
 </sst>
 </file>
@@ -1928,13 +1934,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W182"/>
+  <dimension ref="A1:W184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O188" sqref="O188"/>
+      <selection pane="bottomRight" activeCell="M185" sqref="M185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7438,6 +7444,76 @@
         <v>370</v>
       </c>
     </row>
+    <row r="183" spans="1:16">
+      <c r="A183" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K183" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L183" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M183" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16">
+      <c r="A184" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M184" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H122"/>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24500" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="377">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1141,6 +1141,18 @@
   </si>
   <si>
     <t>20:20</t>
+  </si>
+  <si>
+    <t>2018-05-05</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>2018-09-22</t>
+  </si>
+  <si>
+    <t>20:45</t>
   </si>
 </sst>
 </file>
@@ -1212,8 +1224,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="179">
+  <cellStyleXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1426,7 +1440,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="179">
+  <cellStyles count="181">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1516,6 +1530,7 @@
     <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1605,6 +1620,7 @@
     <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1934,13 +1950,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W184"/>
+  <dimension ref="A1:W187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M185" sqref="M185"/>
+      <selection pane="bottomRight" activeCell="M188" sqref="M188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7228,7 +7244,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:20">
       <c r="A177" s="1" t="s">
         <v>163</v>
       </c>
@@ -7266,7 +7282,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:20">
       <c r="A178" s="1" t="s">
         <v>163</v>
       </c>
@@ -7301,7 +7317,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:20">
       <c r="A179" s="1" t="s">
         <v>163</v>
       </c>
@@ -7336,7 +7352,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:20">
       <c r="A180" s="1" t="s">
         <v>163</v>
       </c>
@@ -7370,8 +7386,26 @@
       <c r="M180" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="181" spans="1:16">
+      <c r="N180" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="O180" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q180" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="R180" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="S180" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="T180" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20">
       <c r="A181" s="1" t="s">
         <v>163</v>
       </c>
@@ -7406,7 +7440,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:20">
       <c r="A182" s="1" t="s">
         <v>163</v>
       </c>
@@ -7444,7 +7478,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:20">
       <c r="A183" s="1" t="s">
         <v>163</v>
       </c>
@@ -7479,7 +7513,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:20">
       <c r="A184" s="1" t="s">
         <v>163</v>
       </c>
@@ -7512,6 +7546,111 @@
       </c>
       <c r="M184" s="1" t="s">
         <v>372</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20">
+      <c r="A185" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M185" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20">
+      <c r="A186" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K186" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M186" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20">
+      <c r="A187" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K187" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L187" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M187" s="1" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatiana/Desktop/Circadian_rhythm_runs_seasonal_timing/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{03B8FACE-2160-284A-87C6-310E08CB394D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="24260" windowHeight="15120" tabRatio="500"/>
+    <workbookView xWindow="5420" yWindow="8940" windowWidth="24260" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$122</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="388">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1135,12 +1141,63 @@
   </si>
   <si>
     <t>eclosed in between cells C/D 9/10</t>
+  </si>
+  <si>
+    <t>2018-05-04</t>
+  </si>
+  <si>
+    <t>20:02</t>
+  </si>
+  <si>
+    <t>2018-05-05</t>
+  </si>
+  <si>
+    <t>20:45</t>
+  </si>
+  <si>
+    <t>19:14</t>
+  </si>
+  <si>
+    <t>stuck in food</t>
+  </si>
+  <si>
+    <t>2018-05-09</t>
+  </si>
+  <si>
+    <t>11:16</t>
+  </si>
+  <si>
+    <t>2018-05-11</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>11:20</t>
+  </si>
+  <si>
+    <t>2018-05-12</t>
+  </si>
+  <si>
+    <t>18:13</t>
+  </si>
+  <si>
+    <t>stuck in cotton 2018-05-12 removed from 18:13-20:53</t>
+  </si>
+  <si>
+    <t>2018-05-16</t>
+  </si>
+  <si>
+    <t>19:25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1603,6 +1660,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1927,17 +1992,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W182"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O188" sqref="O188"/>
+      <selection pane="bottomRight" activeCell="N194" sqref="N194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="1"/>
@@ -1959,7 +2024,7 @@
     <col min="23" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2030,7 +2095,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2060,7 +2125,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2086,7 +2151,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -2112,7 +2177,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -2138,7 +2203,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -2164,7 +2229,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -2190,7 +2255,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -2216,7 +2281,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -2242,7 +2307,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2268,7 +2333,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -2294,7 +2359,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -2320,7 +2385,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2346,7 +2411,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2372,7 +2437,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -2398,7 +2463,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -2424,7 +2489,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -2450,7 +2515,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -2476,7 +2541,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -2502,7 +2567,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -2528,7 +2593,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -2554,7 +2619,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -2580,7 +2645,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -2606,7 +2671,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -2632,7 +2697,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
@@ -2658,7 +2723,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -2684,7 +2749,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -2710,7 +2775,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
@@ -2736,7 +2801,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
@@ -2762,7 +2827,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -2788,7 +2853,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -2814,7 +2879,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
@@ -2840,7 +2905,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -2866,7 +2931,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -2892,7 +2957,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -2918,7 +2983,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -2944,7 +3009,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -2970,7 +3035,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -2996,7 +3061,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
@@ -3022,7 +3087,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -3048,7 +3113,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -3074,7 +3139,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -3100,7 +3165,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>61</v>
       </c>
@@ -3126,7 +3191,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
@@ -3152,7 +3217,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -3178,7 +3243,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>61</v>
       </c>
@@ -3204,7 +3269,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>61</v>
       </c>
@@ -3230,7 +3295,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>61</v>
       </c>
@@ -3256,7 +3321,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
@@ -3282,7 +3347,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
@@ -3308,7 +3373,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
@@ -3334,7 +3399,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
@@ -3360,7 +3425,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
@@ -3386,7 +3451,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>61</v>
       </c>
@@ -3412,7 +3477,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>73</v>
       </c>
@@ -3438,7 +3503,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>75</v>
       </c>
@@ -3464,7 +3529,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>75</v>
       </c>
@@ -3490,7 +3555,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>75</v>
       </c>
@@ -3516,7 +3581,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>13</v>
       </c>
@@ -3542,7 +3607,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>73</v>
       </c>
@@ -3568,7 +3633,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
@@ -3594,7 +3659,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>13</v>
       </c>
@@ -3620,7 +3685,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
@@ -3646,7 +3711,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>75</v>
       </c>
@@ -3672,7 +3737,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>75</v>
       </c>
@@ -3698,7 +3763,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
@@ -3724,7 +3789,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>75</v>
       </c>
@@ -3750,7 +3815,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>13</v>
       </c>
@@ -3776,7 +3841,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>13</v>
       </c>
@@ -3802,7 +3867,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
@@ -3828,7 +3893,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
@@ -3854,7 +3919,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>12</v>
       </c>
@@ -3880,7 +3945,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
@@ -3906,7 +3971,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -3932,7 +3997,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -3958,7 +4023,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>12</v>
       </c>
@@ -3984,7 +4049,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>12</v>
       </c>
@@ -4010,7 +4075,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>11</v>
       </c>
@@ -4036,7 +4101,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>13</v>
       </c>
@@ -4062,7 +4127,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>11</v>
       </c>
@@ -4088,7 +4153,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>12</v>
       </c>
@@ -4114,7 +4179,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
@@ -4140,7 +4205,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>12</v>
       </c>
@@ -4166,7 +4231,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>61</v>
       </c>
@@ -4189,7 +4254,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>12</v>
       </c>
@@ -4212,7 +4277,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>12</v>
       </c>
@@ -4235,7 +4300,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>12</v>
       </c>
@@ -4258,7 +4323,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>13</v>
       </c>
@@ -4281,7 +4346,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>13</v>
       </c>
@@ -4304,7 +4369,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>73</v>
       </c>
@@ -4327,7 +4392,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>145</v>
       </c>
@@ -4353,7 +4418,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>11</v>
       </c>
@@ -4376,7 +4441,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>12</v>
       </c>
@@ -4399,7 +4464,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>12</v>
       </c>
@@ -4422,7 +4487,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>13</v>
       </c>
@@ -4445,7 +4510,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>61</v>
       </c>
@@ -4468,7 +4533,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>61</v>
       </c>
@@ -4491,7 +4556,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>12</v>
       </c>
@@ -4514,7 +4579,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>12</v>
       </c>
@@ -4537,7 +4602,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>12</v>
       </c>
@@ -4560,7 +4625,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>12</v>
       </c>
@@ -4583,7 +4648,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>13</v>
       </c>
@@ -4606,7 +4671,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>13</v>
       </c>
@@ -4629,7 +4694,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>13</v>
       </c>
@@ -4652,7 +4717,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>13</v>
       </c>
@@ -4675,7 +4740,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>12</v>
       </c>
@@ -4698,7 +4763,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>11</v>
       </c>
@@ -4742,7 +4807,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>13</v>
       </c>
@@ -4786,7 +4851,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>13</v>
       </c>
@@ -4830,7 +4895,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>61</v>
       </c>
@@ -4874,7 +4939,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>61</v>
       </c>
@@ -4912,7 +4977,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>12</v>
       </c>
@@ -4935,7 +5000,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>13</v>
       </c>
@@ -4958,7 +5023,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>11</v>
       </c>
@@ -4981,7 +5046,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>73</v>
       </c>
@@ -5004,7 +5069,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>61</v>
       </c>
@@ -5027,7 +5092,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>61</v>
       </c>
@@ -5050,7 +5115,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>12</v>
       </c>
@@ -5073,7 +5138,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>61</v>
       </c>
@@ -5096,7 +5161,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>12</v>
       </c>
@@ -5119,7 +5184,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>13</v>
       </c>
@@ -5142,7 +5207,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>13</v>
       </c>
@@ -5165,7 +5230,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
         <v>163</v>
       </c>
@@ -5209,7 +5274,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
         <v>75</v>
       </c>
@@ -5253,7 +5318,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
         <v>163</v>
       </c>
@@ -5297,7 +5362,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
         <v>163</v>
       </c>
@@ -5341,7 +5406,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>163</v>
       </c>
@@ -5385,7 +5450,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>163</v>
       </c>
@@ -5423,7 +5488,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>163</v>
       </c>
@@ -5464,7 +5529,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>163</v>
       </c>
@@ -5505,7 +5570,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
         <v>163</v>
       </c>
@@ -5546,7 +5611,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
         <v>163</v>
       </c>
@@ -5590,7 +5655,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
         <v>163</v>
       </c>
@@ -5634,7 +5699,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>12</v>
       </c>
@@ -5660,7 +5725,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>61</v>
       </c>
@@ -5686,7 +5751,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>12</v>
       </c>
@@ -5712,7 +5777,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>12</v>
       </c>
@@ -5738,7 +5803,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>13</v>
       </c>
@@ -5764,7 +5829,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>61</v>
       </c>
@@ -5790,7 +5855,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>61</v>
       </c>
@@ -5816,7 +5881,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>61</v>
       </c>
@@ -5842,7 +5907,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>12</v>
       </c>
@@ -5868,7 +5933,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>13</v>
       </c>
@@ -5894,7 +5959,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>61</v>
       </c>
@@ -5920,7 +5985,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>61</v>
       </c>
@@ -5946,7 +6011,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>12</v>
       </c>
@@ -5987,7 +6052,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>61</v>
       </c>
@@ -6013,7 +6078,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>61</v>
       </c>
@@ -6054,7 +6119,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>73</v>
       </c>
@@ -6095,7 +6160,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>13</v>
       </c>
@@ -6139,7 +6204,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>61</v>
       </c>
@@ -6183,7 +6248,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>12</v>
       </c>
@@ -6221,7 +6286,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>61</v>
       </c>
@@ -6265,7 +6330,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>163</v>
       </c>
@@ -6309,7 +6374,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>13</v>
       </c>
@@ -6353,7 +6418,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>61</v>
       </c>
@@ -6394,7 +6459,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>61</v>
       </c>
@@ -6438,7 +6503,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>13</v>
       </c>
@@ -6482,7 +6547,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>259</v>
       </c>
@@ -6526,7 +6591,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>13</v>
       </c>
@@ -6564,7 +6629,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>11</v>
       </c>
@@ -6608,7 +6673,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>61</v>
       </c>
@@ -6652,7 +6717,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>163</v>
       </c>
@@ -6696,7 +6761,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>13</v>
       </c>
@@ -6737,7 +6802,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>13</v>
       </c>
@@ -6781,7 +6846,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>163</v>
       </c>
@@ -6825,7 +6890,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>13</v>
       </c>
@@ -6866,7 +6931,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>163</v>
       </c>
@@ -6901,7 +6966,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>13</v>
       </c>
@@ -6945,7 +7010,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="170" spans="1:19">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>61</v>
       </c>
@@ -6986,7 +7051,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>163</v>
       </c>
@@ -7030,7 +7095,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="172" spans="1:19">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>11</v>
       </c>
@@ -7074,7 +7139,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="173" spans="1:19">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A173" s="9">
         <v>43000</v>
       </c>
@@ -7123,7 +7188,7 @@
       <c r="R173" s="10"/>
       <c r="S173" s="10"/>
     </row>
-    <row r="174" spans="1:19">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>163</v>
       </c>
@@ -7158,7 +7223,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="175" spans="1:19">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>163</v>
       </c>
@@ -7187,7 +7252,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="176" spans="1:19">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>163</v>
       </c>
@@ -7222,7 +7287,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>163</v>
       </c>
@@ -7260,7 +7325,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>163</v>
       </c>
@@ -7295,7 +7360,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>163</v>
       </c>
@@ -7329,8 +7394,17 @@
       <c r="M179" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="180" spans="1:16">
+      <c r="N179" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O179" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="P179" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>163</v>
       </c>
@@ -7365,7 +7439,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>163</v>
       </c>
@@ -7399,8 +7473,14 @@
       <c r="M181" s="1" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="182" spans="1:16">
+      <c r="N181" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="O181" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>163</v>
       </c>
@@ -7438,8 +7518,399 @@
         <v>370</v>
       </c>
     </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K183" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L183" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M183" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M184" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="N184" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="O184" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="P184" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M185" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="N185" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="O185" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K186" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M186" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K187" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L187" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M187" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K188" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="L188" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M188" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K189" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L189" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M189" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K190" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L190" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M190" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="P190" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K191" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L191" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M191" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K192" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L192" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M192" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K193" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L193" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M193" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H122"/>
+  <autoFilter ref="A1:H122" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10513"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatiana/Desktop/Circadian_rhythm_runs_seasonal_timing/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{03B8FACE-2160-284A-87C6-310E08CB394D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BD28A760-D3E1-AF44-A636-6E2917598D47}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="8940" windowWidth="24260" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11000" yWindow="10020" windowWidth="24260" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="390">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1192,6 +1192,12 @@
   </si>
   <si>
     <t>19:25</t>
+  </si>
+  <si>
+    <t>2018-05-19</t>
+  </si>
+  <si>
+    <t>20:15</t>
   </si>
 </sst>
 </file>
@@ -1996,10 +2002,10 @@
   <dimension ref="A1:W193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D186" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E176" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N194" sqref="N194"/>
+      <selection pane="bottomRight" activeCell="O185" sqref="O185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7287,7 +7293,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>163</v>
       </c>
@@ -7325,7 +7331,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>163</v>
       </c>
@@ -7360,7 +7366,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>163</v>
       </c>
@@ -7404,7 +7410,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>163</v>
       </c>
@@ -7439,7 +7445,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>163</v>
       </c>
@@ -7480,7 +7486,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>163</v>
       </c>
@@ -7518,7 +7524,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>163</v>
       </c>
@@ -7553,7 +7559,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>163</v>
       </c>
@@ -7597,7 +7603,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>163</v>
       </c>
@@ -7638,7 +7644,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>163</v>
       </c>
@@ -7673,7 +7679,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>163</v>
       </c>
@@ -7708,7 +7714,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>163</v>
       </c>
@@ -7742,8 +7748,26 @@
       <c r="M188" s="1" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N188" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="O188" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q188" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="R188" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S188" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="T188" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>163</v>
       </c>
@@ -7777,8 +7801,26 @@
       <c r="M189" s="1" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N189" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="O189" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q189" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="R189" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S189" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="T189" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>163</v>
       </c>
@@ -7813,10 +7855,13 @@
         <v>385</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="B191" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C191" s="1" t="s">
         <v>82</v>
       </c>
@@ -7845,9 +7890,12 @@
         <v>387</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>163</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>17</v>
@@ -7880,6 +7928,9 @@
     <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>163</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>132</v>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatiana/Desktop/Circadian_rhythm_runs_seasonal_timing/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BD28A760-D3E1-AF44-A636-6E2917598D47}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{82C6F51B-DEC7-EC44-8616-71A9F95C8C1C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11000" yWindow="10020" windowWidth="24260" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="394">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1198,6 +1198,18 @@
   </si>
   <si>
     <t>20:15</t>
+  </si>
+  <si>
+    <t>2018-05-25</t>
+  </si>
+  <si>
+    <t>20:25</t>
+  </si>
+  <si>
+    <t>2018-05-18</t>
+  </si>
+  <si>
+    <t>19:08</t>
   </si>
 </sst>
 </file>
@@ -2002,10 +2014,10 @@
   <dimension ref="A1:W193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E176" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="L176" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O185" sqref="O185"/>
+      <selection pane="bottomRight" activeCell="T194" sqref="T194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7889,6 +7901,24 @@
       <c r="M191" s="1" t="s">
         <v>387</v>
       </c>
+      <c r="N191" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="O191" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q191" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="R191" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S191" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="T191" s="1" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
@@ -7924,8 +7954,17 @@
       <c r="M192" s="1" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N192" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="O192" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="P192" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>163</v>
       </c>
@@ -7958,6 +7997,24 @@
       </c>
       <c r="M193" s="1" t="s">
         <v>387</v>
+      </c>
+      <c r="N193" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="O193" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q193" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="R193" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="S193" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="T193" s="1" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatiana/Desktop/Circadian_rhythm_runs_seasonal_timing/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{82C6F51B-DEC7-EC44-8616-71A9F95C8C1C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12214795-F48C-4607-BB42-9237D3F638AE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11000" yWindow="10020" windowWidth="24260" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10995" yWindow="10020" windowWidth="24255" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="400">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1210,6 +1210,24 @@
   </si>
   <si>
     <t>19:08</t>
+  </si>
+  <si>
+    <t>2018-05-28</t>
+  </si>
+  <si>
+    <t>12:20</t>
+  </si>
+  <si>
+    <t>2018-05-29</t>
+  </si>
+  <si>
+    <t>14:10</t>
+  </si>
+  <si>
+    <t>2018-05-23</t>
+  </si>
+  <si>
+    <t>12:17</t>
   </si>
 </sst>
 </file>
@@ -2011,38 +2029,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W193"/>
+  <dimension ref="A1:W194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L176" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G170" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T194" sqref="T194"/>
+      <selection pane="bottomRight" activeCell="O186" sqref="O186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1"/>
+    <col min="3" max="3" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.875" style="1"/>
+    <col min="10" max="10" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="1"/>
+    <col min="19" max="20" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2113,7 +2131,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2143,7 +2161,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2169,7 +2187,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -2195,7 +2213,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -2221,7 +2239,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -2247,7 +2265,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -2273,7 +2291,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -2299,7 +2317,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -2325,7 +2343,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2351,7 +2369,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -2377,7 +2395,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -2403,7 +2421,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2429,7 +2447,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2455,7 +2473,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -2481,7 +2499,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -2507,7 +2525,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -2533,7 +2551,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -2559,7 +2577,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -2585,7 +2603,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -2611,7 +2629,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -2637,7 +2655,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -2663,7 +2681,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -2689,7 +2707,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -2715,7 +2733,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
@@ -2741,7 +2759,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -2767,7 +2785,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -2793,7 +2811,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
@@ -2819,7 +2837,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
@@ -2845,7 +2863,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -2871,7 +2889,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -2897,7 +2915,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
@@ -2923,7 +2941,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -2949,7 +2967,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -2975,7 +2993,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -3001,7 +3019,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -3027,7 +3045,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -3053,7 +3071,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -3079,7 +3097,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
@@ -3105,7 +3123,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -3131,7 +3149,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -3157,7 +3175,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -3183,7 +3201,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>61</v>
       </c>
@@ -3209,7 +3227,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
@@ -3235,7 +3253,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -3261,7 +3279,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>61</v>
       </c>
@@ -3287,7 +3305,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>61</v>
       </c>
@@ -3313,7 +3331,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>61</v>
       </c>
@@ -3339,7 +3357,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
@@ -3365,7 +3383,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
@@ -3391,7 +3409,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
@@ -3417,7 +3435,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
@@ -3443,7 +3461,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
@@ -3469,7 +3487,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>61</v>
       </c>
@@ -3495,7 +3513,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>73</v>
       </c>
@@ -3521,7 +3539,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>75</v>
       </c>
@@ -3547,7 +3565,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>75</v>
       </c>
@@ -3573,7 +3591,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>75</v>
       </c>
@@ -3599,7 +3617,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>13</v>
       </c>
@@ -3625,7 +3643,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>73</v>
       </c>
@@ -3651,7 +3669,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
@@ -3677,7 +3695,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>13</v>
       </c>
@@ -3703,7 +3721,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
@@ -3729,7 +3747,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>75</v>
       </c>
@@ -3755,7 +3773,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>75</v>
       </c>
@@ -3781,7 +3799,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
@@ -3807,7 +3825,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>75</v>
       </c>
@@ -3833,7 +3851,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>13</v>
       </c>
@@ -3859,7 +3877,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>13</v>
       </c>
@@ -3885,7 +3903,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
@@ -3911,7 +3929,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
@@ -3937,7 +3955,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>12</v>
       </c>
@@ -3963,7 +3981,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
@@ -3989,7 +4007,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -4015,7 +4033,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -4041,7 +4059,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>12</v>
       </c>
@@ -4067,7 +4085,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>12</v>
       </c>
@@ -4093,7 +4111,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>11</v>
       </c>
@@ -4119,7 +4137,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>13</v>
       </c>
@@ -4145,7 +4163,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>11</v>
       </c>
@@ -4171,7 +4189,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>12</v>
       </c>
@@ -4197,7 +4215,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
@@ -4223,7 +4241,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>12</v>
       </c>
@@ -4249,7 +4267,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>61</v>
       </c>
@@ -4272,7 +4290,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>12</v>
       </c>
@@ -4295,7 +4313,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>12</v>
       </c>
@@ -4318,7 +4336,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>12</v>
       </c>
@@ -4341,7 +4359,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>13</v>
       </c>
@@ -4364,7 +4382,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>13</v>
       </c>
@@ -4387,7 +4405,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>73</v>
       </c>
@@ -4410,7 +4428,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>145</v>
       </c>
@@ -4436,7 +4454,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>11</v>
       </c>
@@ -4459,7 +4477,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>12</v>
       </c>
@@ -4482,7 +4500,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>12</v>
       </c>
@@ -4505,7 +4523,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>13</v>
       </c>
@@ -4528,7 +4546,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>61</v>
       </c>
@@ -4551,7 +4569,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>61</v>
       </c>
@@ -4574,7 +4592,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>12</v>
       </c>
@@ -4597,7 +4615,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>12</v>
       </c>
@@ -4620,7 +4638,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>12</v>
       </c>
@@ -4643,7 +4661,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>12</v>
       </c>
@@ -4666,7 +4684,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>13</v>
       </c>
@@ -4689,7 +4707,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>13</v>
       </c>
@@ -4712,7 +4730,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>13</v>
       </c>
@@ -4735,7 +4753,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>13</v>
       </c>
@@ -4758,7 +4776,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>12</v>
       </c>
@@ -4781,7 +4799,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>11</v>
       </c>
@@ -4825,7 +4843,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>13</v>
       </c>
@@ -4869,7 +4887,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>13</v>
       </c>
@@ -4913,7 +4931,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>61</v>
       </c>
@@ -4957,7 +4975,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>61</v>
       </c>
@@ -4995,7 +5013,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>12</v>
       </c>
@@ -5018,7 +5036,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>13</v>
       </c>
@@ -5041,7 +5059,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>11</v>
       </c>
@@ -5064,7 +5082,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>73</v>
       </c>
@@ -5087,7 +5105,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>61</v>
       </c>
@@ -5110,7 +5128,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>61</v>
       </c>
@@ -5133,7 +5151,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>12</v>
       </c>
@@ -5156,7 +5174,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>61</v>
       </c>
@@ -5179,7 +5197,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>12</v>
       </c>
@@ -5202,7 +5220,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>13</v>
       </c>
@@ -5225,7 +5243,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>13</v>
       </c>
@@ -5248,7 +5266,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>163</v>
       </c>
@@ -5292,7 +5310,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>75</v>
       </c>
@@ -5336,7 +5354,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>163</v>
       </c>
@@ -5380,7 +5398,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>163</v>
       </c>
@@ -5424,7 +5442,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>163</v>
       </c>
@@ -5468,7 +5486,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>163</v>
       </c>
@@ -5506,7 +5524,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>163</v>
       </c>
@@ -5547,7 +5565,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>163</v>
       </c>
@@ -5588,7 +5606,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>163</v>
       </c>
@@ -5629,7 +5647,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>163</v>
       </c>
@@ -5673,7 +5691,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>163</v>
       </c>
@@ -5717,7 +5735,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>12</v>
       </c>
@@ -5743,7 +5761,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>61</v>
       </c>
@@ -5769,7 +5787,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>12</v>
       </c>
@@ -5795,7 +5813,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>12</v>
       </c>
@@ -5821,7 +5839,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>13</v>
       </c>
@@ -5847,7 +5865,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>61</v>
       </c>
@@ -5873,7 +5891,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>61</v>
       </c>
@@ -5899,7 +5917,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>61</v>
       </c>
@@ -5925,7 +5943,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>12</v>
       </c>
@@ -5951,7 +5969,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>13</v>
       </c>
@@ -5977,7 +5995,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>61</v>
       </c>
@@ -6003,7 +6021,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>61</v>
       </c>
@@ -6029,7 +6047,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>12</v>
       </c>
@@ -6070,7 +6088,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>61</v>
       </c>
@@ -6096,7 +6114,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>61</v>
       </c>
@@ -6137,7 +6155,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>73</v>
       </c>
@@ -6178,7 +6196,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>13</v>
       </c>
@@ -6222,7 +6240,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>61</v>
       </c>
@@ -6266,7 +6284,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>12</v>
       </c>
@@ -6304,7 +6322,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>61</v>
       </c>
@@ -6348,7 +6366,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>163</v>
       </c>
@@ -6392,7 +6410,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>13</v>
       </c>
@@ -6436,7 +6454,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>61</v>
       </c>
@@ -6477,7 +6495,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>61</v>
       </c>
@@ -6521,7 +6539,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>13</v>
       </c>
@@ -6565,7 +6583,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>259</v>
       </c>
@@ -6609,7 +6627,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>13</v>
       </c>
@@ -6647,7 +6665,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>11</v>
       </c>
@@ -6691,7 +6709,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>61</v>
       </c>
@@ -6735,7 +6753,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>163</v>
       </c>
@@ -6779,7 +6797,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>13</v>
       </c>
@@ -6820,7 +6838,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>13</v>
       </c>
@@ -6864,7 +6882,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>163</v>
       </c>
@@ -6908,7 +6926,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>13</v>
       </c>
@@ -6949,7 +6967,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>163</v>
       </c>
@@ -6984,7 +7002,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>13</v>
       </c>
@@ -7028,7 +7046,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>61</v>
       </c>
@@ -7069,7 +7087,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>163</v>
       </c>
@@ -7113,7 +7131,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>11</v>
       </c>
@@ -7157,7 +7175,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="9">
         <v>43000</v>
       </c>
@@ -7206,7 +7224,7 @@
       <c r="R173" s="10"/>
       <c r="S173" s="10"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>163</v>
       </c>
@@ -7241,7 +7259,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>163</v>
       </c>
@@ -7270,7 +7288,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>163</v>
       </c>
@@ -7305,7 +7323,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>163</v>
       </c>
@@ -7343,7 +7361,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>163</v>
       </c>
@@ -7378,7 +7396,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>163</v>
       </c>
@@ -7422,7 +7440,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>163</v>
       </c>
@@ -7457,7 +7475,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>163</v>
       </c>
@@ -7498,7 +7516,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>163</v>
       </c>
@@ -7536,7 +7554,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>163</v>
       </c>
@@ -7571,7 +7589,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>163</v>
       </c>
@@ -7615,7 +7633,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>163</v>
       </c>
@@ -7656,7 +7674,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>163</v>
       </c>
@@ -7690,8 +7708,14 @@
       <c r="M186" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N186" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="O186" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>163</v>
       </c>
@@ -7726,7 +7750,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>163</v>
       </c>
@@ -7779,7 +7803,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>163</v>
       </c>
@@ -7832,7 +7856,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>163</v>
       </c>
@@ -7867,7 +7891,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>163</v>
       </c>
@@ -7920,7 +7944,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>163</v>
       </c>
@@ -7964,7 +7988,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>163</v>
       </c>
@@ -8015,6 +8039,50 @@
       </c>
       <c r="T193" s="1" t="s">
         <v>391</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K194" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L194" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M194" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="N194" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="O194" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="P194" s="1" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatianagerena\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12214795-F48C-4607-BB42-9237D3F638AE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6C6AFE-7DA4-4FA7-90BC-2BFA7C724BE2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10995" yWindow="10020" windowWidth="24255" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2032,10 +2032,10 @@
   <dimension ref="A1:W194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G170" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O186" sqref="O186"/>
+      <selection pane="bottomRight" activeCell="B194" sqref="B194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatiana/Desktop/Circadian_rhythm_runs_seasonal_timing/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatianagerena\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{82C6F51B-DEC7-EC44-8616-71A9F95C8C1C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6C6AFE-7DA4-4FA7-90BC-2BFA7C724BE2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11000" yWindow="10020" windowWidth="24260" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10995" yWindow="10020" windowWidth="24255" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="400">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1210,6 +1210,24 @@
   </si>
   <si>
     <t>19:08</t>
+  </si>
+  <si>
+    <t>2018-05-28</t>
+  </si>
+  <si>
+    <t>12:20</t>
+  </si>
+  <si>
+    <t>2018-05-29</t>
+  </si>
+  <si>
+    <t>14:10</t>
+  </si>
+  <si>
+    <t>2018-05-23</t>
+  </si>
+  <si>
+    <t>12:17</t>
   </si>
 </sst>
 </file>
@@ -2011,38 +2029,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W193"/>
+  <dimension ref="A1:W194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L176" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T194" sqref="T194"/>
+      <selection pane="bottomRight" activeCell="B194" sqref="B194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1"/>
+    <col min="3" max="3" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.875" style="1"/>
+    <col min="10" max="10" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="1"/>
+    <col min="19" max="20" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2113,7 +2131,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2143,7 +2161,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2169,7 +2187,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -2195,7 +2213,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -2221,7 +2239,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -2247,7 +2265,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -2273,7 +2291,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -2299,7 +2317,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -2325,7 +2343,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2351,7 +2369,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -2377,7 +2395,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -2403,7 +2421,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2429,7 +2447,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2455,7 +2473,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -2481,7 +2499,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -2507,7 +2525,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -2533,7 +2551,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -2559,7 +2577,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -2585,7 +2603,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -2611,7 +2629,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -2637,7 +2655,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -2663,7 +2681,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -2689,7 +2707,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -2715,7 +2733,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
@@ -2741,7 +2759,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -2767,7 +2785,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -2793,7 +2811,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
@@ -2819,7 +2837,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
@@ -2845,7 +2863,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -2871,7 +2889,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -2897,7 +2915,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
@@ -2923,7 +2941,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -2949,7 +2967,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -2975,7 +2993,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -3001,7 +3019,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -3027,7 +3045,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -3053,7 +3071,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -3079,7 +3097,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
@@ -3105,7 +3123,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -3131,7 +3149,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -3157,7 +3175,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -3183,7 +3201,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>61</v>
       </c>
@@ -3209,7 +3227,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
@@ -3235,7 +3253,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -3261,7 +3279,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>61</v>
       </c>
@@ -3287,7 +3305,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>61</v>
       </c>
@@ -3313,7 +3331,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>61</v>
       </c>
@@ -3339,7 +3357,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
@@ -3365,7 +3383,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
@@ -3391,7 +3409,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
@@ -3417,7 +3435,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
@@ -3443,7 +3461,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
@@ -3469,7 +3487,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>61</v>
       </c>
@@ -3495,7 +3513,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>73</v>
       </c>
@@ -3521,7 +3539,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>75</v>
       </c>
@@ -3547,7 +3565,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>75</v>
       </c>
@@ -3573,7 +3591,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>75</v>
       </c>
@@ -3599,7 +3617,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>13</v>
       </c>
@@ -3625,7 +3643,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>73</v>
       </c>
@@ -3651,7 +3669,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
@@ -3677,7 +3695,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>13</v>
       </c>
@@ -3703,7 +3721,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
@@ -3729,7 +3747,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>75</v>
       </c>
@@ -3755,7 +3773,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>75</v>
       </c>
@@ -3781,7 +3799,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
@@ -3807,7 +3825,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>75</v>
       </c>
@@ -3833,7 +3851,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>13</v>
       </c>
@@ -3859,7 +3877,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>13</v>
       </c>
@@ -3885,7 +3903,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
@@ -3911,7 +3929,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
@@ -3937,7 +3955,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>12</v>
       </c>
@@ -3963,7 +3981,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
@@ -3989,7 +4007,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -4015,7 +4033,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -4041,7 +4059,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>12</v>
       </c>
@@ -4067,7 +4085,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>12</v>
       </c>
@@ -4093,7 +4111,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>11</v>
       </c>
@@ -4119,7 +4137,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>13</v>
       </c>
@@ -4145,7 +4163,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>11</v>
       </c>
@@ -4171,7 +4189,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>12</v>
       </c>
@@ -4197,7 +4215,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
@@ -4223,7 +4241,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>12</v>
       </c>
@@ -4249,7 +4267,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>61</v>
       </c>
@@ -4272,7 +4290,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>12</v>
       </c>
@@ -4295,7 +4313,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>12</v>
       </c>
@@ -4318,7 +4336,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>12</v>
       </c>
@@ -4341,7 +4359,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>13</v>
       </c>
@@ -4364,7 +4382,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>13</v>
       </c>
@@ -4387,7 +4405,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>73</v>
       </c>
@@ -4410,7 +4428,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>145</v>
       </c>
@@ -4436,7 +4454,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>11</v>
       </c>
@@ -4459,7 +4477,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>12</v>
       </c>
@@ -4482,7 +4500,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>12</v>
       </c>
@@ -4505,7 +4523,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>13</v>
       </c>
@@ -4528,7 +4546,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>61</v>
       </c>
@@ -4551,7 +4569,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>61</v>
       </c>
@@ -4574,7 +4592,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>12</v>
       </c>
@@ -4597,7 +4615,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>12</v>
       </c>
@@ -4620,7 +4638,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>12</v>
       </c>
@@ -4643,7 +4661,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>12</v>
       </c>
@@ -4666,7 +4684,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>13</v>
       </c>
@@ -4689,7 +4707,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>13</v>
       </c>
@@ -4712,7 +4730,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>13</v>
       </c>
@@ -4735,7 +4753,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>13</v>
       </c>
@@ -4758,7 +4776,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>12</v>
       </c>
@@ -4781,7 +4799,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>11</v>
       </c>
@@ -4825,7 +4843,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>13</v>
       </c>
@@ -4869,7 +4887,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>13</v>
       </c>
@@ -4913,7 +4931,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>61</v>
       </c>
@@ -4957,7 +4975,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>61</v>
       </c>
@@ -4995,7 +5013,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>12</v>
       </c>
@@ -5018,7 +5036,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>13</v>
       </c>
@@ -5041,7 +5059,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>11</v>
       </c>
@@ -5064,7 +5082,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>73</v>
       </c>
@@ -5087,7 +5105,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>61</v>
       </c>
@@ -5110,7 +5128,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>61</v>
       </c>
@@ -5133,7 +5151,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>12</v>
       </c>
@@ -5156,7 +5174,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>61</v>
       </c>
@@ -5179,7 +5197,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>12</v>
       </c>
@@ -5202,7 +5220,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>13</v>
       </c>
@@ -5225,7 +5243,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>13</v>
       </c>
@@ -5248,7 +5266,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>163</v>
       </c>
@@ -5292,7 +5310,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>75</v>
       </c>
@@ -5336,7 +5354,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>163</v>
       </c>
@@ -5380,7 +5398,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>163</v>
       </c>
@@ -5424,7 +5442,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>163</v>
       </c>
@@ -5468,7 +5486,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>163</v>
       </c>
@@ -5506,7 +5524,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>163</v>
       </c>
@@ -5547,7 +5565,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>163</v>
       </c>
@@ -5588,7 +5606,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>163</v>
       </c>
@@ -5629,7 +5647,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>163</v>
       </c>
@@ -5673,7 +5691,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>163</v>
       </c>
@@ -5717,7 +5735,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>12</v>
       </c>
@@ -5743,7 +5761,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>61</v>
       </c>
@@ -5769,7 +5787,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>12</v>
       </c>
@@ -5795,7 +5813,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>12</v>
       </c>
@@ -5821,7 +5839,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>13</v>
       </c>
@@ -5847,7 +5865,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>61</v>
       </c>
@@ -5873,7 +5891,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>61</v>
       </c>
@@ -5899,7 +5917,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>61</v>
       </c>
@@ -5925,7 +5943,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>12</v>
       </c>
@@ -5951,7 +5969,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>13</v>
       </c>
@@ -5977,7 +5995,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>61</v>
       </c>
@@ -6003,7 +6021,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>61</v>
       </c>
@@ -6029,7 +6047,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>12</v>
       </c>
@@ -6070,7 +6088,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>61</v>
       </c>
@@ -6096,7 +6114,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>61</v>
       </c>
@@ -6137,7 +6155,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>73</v>
       </c>
@@ -6178,7 +6196,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>13</v>
       </c>
@@ -6222,7 +6240,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>61</v>
       </c>
@@ -6266,7 +6284,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>12</v>
       </c>
@@ -6304,7 +6322,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>61</v>
       </c>
@@ -6348,7 +6366,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>163</v>
       </c>
@@ -6392,7 +6410,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>13</v>
       </c>
@@ -6436,7 +6454,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>61</v>
       </c>
@@ -6477,7 +6495,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>61</v>
       </c>
@@ -6521,7 +6539,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>13</v>
       </c>
@@ -6565,7 +6583,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>259</v>
       </c>
@@ -6609,7 +6627,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>13</v>
       </c>
@@ -6647,7 +6665,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>11</v>
       </c>
@@ -6691,7 +6709,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>61</v>
       </c>
@@ -6735,7 +6753,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>163</v>
       </c>
@@ -6779,7 +6797,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>13</v>
       </c>
@@ -6820,7 +6838,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>13</v>
       </c>
@@ -6864,7 +6882,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>163</v>
       </c>
@@ -6908,7 +6926,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>13</v>
       </c>
@@ -6949,7 +6967,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>163</v>
       </c>
@@ -6984,7 +7002,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>13</v>
       </c>
@@ -7028,7 +7046,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>61</v>
       </c>
@@ -7069,7 +7087,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>163</v>
       </c>
@@ -7113,7 +7131,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>11</v>
       </c>
@@ -7157,7 +7175,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="9">
         <v>43000</v>
       </c>
@@ -7206,7 +7224,7 @@
       <c r="R173" s="10"/>
       <c r="S173" s="10"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>163</v>
       </c>
@@ -7241,7 +7259,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>163</v>
       </c>
@@ -7270,7 +7288,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>163</v>
       </c>
@@ -7305,7 +7323,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>163</v>
       </c>
@@ -7343,7 +7361,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>163</v>
       </c>
@@ -7378,7 +7396,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>163</v>
       </c>
@@ -7422,7 +7440,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>163</v>
       </c>
@@ -7457,7 +7475,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>163</v>
       </c>
@@ -7498,7 +7516,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>163</v>
       </c>
@@ -7536,7 +7554,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>163</v>
       </c>
@@ -7571,7 +7589,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>163</v>
       </c>
@@ -7615,7 +7633,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>163</v>
       </c>
@@ -7656,7 +7674,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>163</v>
       </c>
@@ -7690,8 +7708,14 @@
       <c r="M186" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N186" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="O186" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>163</v>
       </c>
@@ -7726,7 +7750,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>163</v>
       </c>
@@ -7779,7 +7803,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>163</v>
       </c>
@@ -7832,7 +7856,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>163</v>
       </c>
@@ -7867,7 +7891,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>163</v>
       </c>
@@ -7920,7 +7944,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>163</v>
       </c>
@@ -7964,7 +7988,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>163</v>
       </c>
@@ -8015,6 +8039,50 @@
       </c>
       <c r="T193" s="1" t="s">
         <v>391</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K194" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L194" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M194" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="N194" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="O194" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="P194" s="1" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatianagerena\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6C6AFE-7DA4-4FA7-90BC-2BFA7C724BE2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AE24BD-E0E9-4E56-A33F-A1059570F4D3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10995" yWindow="10020" windowWidth="24255" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="401">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1228,6 +1228,9 @@
   </si>
   <si>
     <t>12:17</t>
+  </si>
+  <si>
+    <t>2018-06-15</t>
   </si>
 </sst>
 </file>
@@ -2032,10 +2035,10 @@
   <dimension ref="A1:W194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D146" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B194" sqref="B194"/>
+      <selection pane="bottomRight" activeCell="U178" sqref="U178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7390,10 +7393,28 @@
         <v>194</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="M178" s="1" t="s">
         <v>362</v>
+      </c>
+      <c r="N178" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="O178" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q178" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="R178" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S178" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="T178" s="1" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.25">
@@ -7588,6 +7609,24 @@
       <c r="M183" s="1" t="s">
         <v>372</v>
       </c>
+      <c r="N183" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="O183" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q183" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="R183" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="S183" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="T183" s="1" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
@@ -7748,6 +7787,24 @@
       </c>
       <c r="M187" s="1" t="s">
         <v>374</v>
+      </c>
+      <c r="N187" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="O187" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q187" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="R187" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="S187" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="T187" s="1" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.25">

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatianagerena\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kylielennon\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AE24BD-E0E9-4E56-A33F-A1059570F4D3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B1EEC9-F75D-46E0-B706-CDD6833516B5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10995" yWindow="10020" windowWidth="24255" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="405">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1231,6 +1231,18 @@
   </si>
   <si>
     <t>2018-06-15</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>2018-06-17</t>
+  </si>
+  <si>
+    <t>13:19</t>
+  </si>
+  <si>
+    <t>290</t>
   </si>
 </sst>
 </file>
@@ -2032,13 +2044,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W194"/>
+  <dimension ref="A1:W195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D176" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U178" sqref="U178"/>
+      <selection pane="bottomRight" activeCell="G201" sqref="G201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8142,6 +8154,41 @@
         <v>336</v>
       </c>
     </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K195" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L195" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M195" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H122" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kylielennon\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B1EEC9-F75D-46E0-B706-CDD6833516B5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D831702-F930-4C68-A6C8-85D526852674}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10995" yWindow="10020" windowWidth="24255" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="408">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1243,6 +1243,15 @@
   </si>
   <si>
     <t>290</t>
+  </si>
+  <si>
+    <t>2018-06-18</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>13:29</t>
   </si>
 </sst>
 </file>
@@ -2044,13 +2053,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W195"/>
+  <dimension ref="A1:W196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D176" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G174" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G201" sqref="G201"/>
+      <selection pane="bottomRight" activeCell="L200" sqref="L200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8171,7 +8180,7 @@
         <v>404</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="I195" s="1" t="s">
         <v>164</v>
@@ -8187,6 +8196,41 @@
       </c>
       <c r="M195" s="1" t="s">
         <v>403</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K196" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L196" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M196" s="1" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kylielennon\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatianagerena\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D831702-F930-4C68-A6C8-85D526852674}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9871547F-C91F-4A63-AC7B-3E20E526641D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10995" yWindow="10020" windowWidth="24255" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="410">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1252,6 +1252,12 @@
   </si>
   <si>
     <t>13:29</t>
+  </si>
+  <si>
+    <t>2018-06-16</t>
+  </si>
+  <si>
+    <t>20:00</t>
   </si>
 </sst>
 </file>
@@ -2056,10 +2062,10 @@
   <dimension ref="A1:W196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G174" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L200" sqref="L200"/>
+      <selection pane="bottomRight" activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7347,7 +7353,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>163</v>
       </c>
@@ -7385,7 +7391,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>163</v>
       </c>
@@ -7438,7 +7444,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>163</v>
       </c>
@@ -7482,7 +7488,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>163</v>
       </c>
@@ -7517,7 +7523,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>163</v>
       </c>
@@ -7558,7 +7564,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>163</v>
       </c>
@@ -7596,7 +7602,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>163</v>
       </c>
@@ -7649,7 +7655,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>163</v>
       </c>
@@ -7693,7 +7699,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>163</v>
       </c>
@@ -7734,7 +7740,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>163</v>
       </c>
@@ -7775,7 +7781,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>163</v>
       </c>
@@ -7828,7 +7834,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>163</v>
       </c>
@@ -7881,7 +7887,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>163</v>
       </c>
@@ -7933,8 +7939,14 @@
       <c r="T189" s="1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U189" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="V189" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>163</v>
       </c>
@@ -7969,7 +7981,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>163</v>
       </c>
@@ -8022,7 +8034,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>163</v>
       </c>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatianagerena\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9871547F-C91F-4A63-AC7B-3E20E526641D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A287C3E3-BC34-4A02-B482-14852C81F92A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10995" yWindow="10020" windowWidth="24255" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="422">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1258,6 +1258,42 @@
   </si>
   <si>
     <t>20:00</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 </t>
+  </si>
+  <si>
+    <t>mID</t>
+  </si>
+  <si>
+    <t>changed water 2018-06-04 20:01</t>
+  </si>
+  <si>
+    <t>2018-02-22</t>
+  </si>
+  <si>
+    <t>20:20</t>
+  </si>
+  <si>
+    <t>2018-04-30</t>
+  </si>
+  <si>
+    <t>2018-04-13</t>
+  </si>
+  <si>
+    <t>20:10</t>
+  </si>
+  <si>
+    <t>2018-03-30</t>
+  </si>
+  <si>
+    <t>19:27</t>
   </si>
 </sst>
 </file>
@@ -2059,13 +2095,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W196"/>
+  <dimension ref="A1:W201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C197" sqref="C197"/>
+      <selection pane="bottomRight" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2555,7 +2591,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -2581,7 +2617,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -2607,7 +2643,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -2633,7 +2669,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -2659,7 +2695,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -2685,7 +2721,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -2711,7 +2747,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -2737,7 +2773,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -2763,7 +2799,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
@@ -2789,7 +2825,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -2815,7 +2851,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -2841,7 +2877,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
@@ -2866,8 +2902,20 @@
       <c r="I28" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
@@ -2893,7 +2941,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -2919,7 +2967,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -2945,7 +2993,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
@@ -8078,7 +8126,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>163</v>
       </c>
@@ -8131,7 +8179,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>163</v>
       </c>
@@ -8175,7 +8223,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>13</v>
       </c>
@@ -8210,7 +8258,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>13</v>
       </c>
@@ -8243,6 +8291,190 @@
       </c>
       <c r="M196" s="1" t="s">
         <v>407</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B197" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B198" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K198" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L198" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M198" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="N198" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="O198" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q198" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R198" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S198" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="T198" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B199" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J199" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K199" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L199" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M199" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="N199" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="O199" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q199" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="R199" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="S199" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="T199" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="W199" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K200" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L200" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N200" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="O200" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B201" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J201" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K201" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L201" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M201" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="N201" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="O201" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q201" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R201" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="S201" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="T201" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="U201" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="V201" s="1" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatianagerena\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A287C3E3-BC34-4A02-B482-14852C81F92A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5652F01-41CB-4D55-886A-6BD8016220C3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10995" yWindow="10020" windowWidth="24255" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="425">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1294,6 +1294,15 @@
   </si>
   <si>
     <t>19:27</t>
+  </si>
+  <si>
+    <t>2018-06-21</t>
+  </si>
+  <si>
+    <t>14:50</t>
+  </si>
+  <si>
+    <t>stuck in cotton and died</t>
   </si>
 </sst>
 </file>
@@ -2098,10 +2107,10 @@
   <dimension ref="A1:W201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="N179" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K28" sqref="K28"/>
+      <selection pane="bottomRight" activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8257,6 +8266,15 @@
       <c r="M195" s="1" t="s">
         <v>403</v>
       </c>
+      <c r="N195" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="O195" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="P195" s="1" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatianagerena\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5652F01-41CB-4D55-886A-6BD8016220C3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F802C8B-8312-4C24-BF8A-F4114D119219}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10995" yWindow="10020" windowWidth="24255" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="432">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1303,6 +1303,27 @@
   </si>
   <si>
     <t>stuck in cotton and died</t>
+  </si>
+  <si>
+    <t>2018-06-24</t>
+  </si>
+  <si>
+    <t>2017-09-11</t>
+  </si>
+  <si>
+    <t>2017-09-06</t>
+  </si>
+  <si>
+    <t>2017-09-08</t>
+  </si>
+  <si>
+    <t>2017-09-04</t>
+  </si>
+  <si>
+    <t>2018-03-20</t>
+  </si>
+  <si>
+    <t>13:00</t>
   </si>
 </sst>
 </file>
@@ -2107,10 +2128,10 @@
   <dimension ref="A1:W201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="N179" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B201" sqref="B201"/>
+      <selection pane="bottomRight" activeCell="C199" sqref="C199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6748,6 +6769,12 @@
       <c r="M160" s="1" t="s">
         <v>263</v>
       </c>
+      <c r="N160" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="P160" s="1" t="s">
         <v>326</v>
       </c>
@@ -8312,6 +8339,9 @@
       </c>
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>428</v>
+      </c>
       <c r="B197" s="1" t="s">
         <v>179</v>
       </c>
@@ -8320,6 +8350,9 @@
       </c>
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>427</v>
+      </c>
       <c r="B198" s="1" t="s">
         <v>411</v>
       </c>
@@ -8367,6 +8400,9 @@
       </c>
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>426</v>
+      </c>
       <c r="B199" s="1" t="s">
         <v>412</v>
       </c>
@@ -8411,6 +8447,12 @@
       </c>
       <c r="T199" s="1" t="s">
         <v>416</v>
+      </c>
+      <c r="U199" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="V199" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="W199" s="1" t="s">
         <v>414</v>
@@ -8443,6 +8485,9 @@
       </c>
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="B201" s="1" t="s">
         <v>249</v>
       </c>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatianagerena\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F802C8B-8312-4C24-BF8A-F4114D119219}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C74031-E47C-4002-869D-D1E67C6C8B52}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10995" yWindow="10020" windowWidth="24255" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="435">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1324,6 +1324,15 @@
   </si>
   <si>
     <t>13:00</t>
+  </si>
+  <si>
+    <t>2018-06-26</t>
+  </si>
+  <si>
+    <t>20:05</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
 </sst>
 </file>
@@ -2128,10 +2137,10 @@
   <dimension ref="A1:W201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D189" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M165" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C199" sqref="C199"/>
+      <selection pane="bottomRight" activeCell="S195" sqref="S195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8337,6 +8346,24 @@
       <c r="M196" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="N196" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="O196" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q196" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="R196" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="S196" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="T196" s="1" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatianagerena\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C74031-E47C-4002-869D-D1E67C6C8B52}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A340DD-10B4-4710-B0A8-4AD814A1ED0C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10995" yWindow="10020" windowWidth="24255" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="436">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1333,6 +1333,9 @@
   </si>
   <si>
     <t>21</t>
+  </si>
+  <si>
+    <t>2018-06-27</t>
   </si>
 </sst>
 </file>
@@ -1585,7 +1588,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1616,6 +1619,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="179">
@@ -2137,10 +2143,10 @@
   <dimension ref="A1:W201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M165" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="N171" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S195" sqref="S195"/>
+      <selection pane="bottomRight" activeCell="W188" sqref="W188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7926,6 +7932,12 @@
       <c r="T187" s="1" t="s">
         <v>389</v>
       </c>
+      <c r="U187" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="V187" s="1" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="188" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatianagerena\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A340DD-10B4-4710-B0A8-4AD814A1ED0C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B312994E-0E17-497E-8895-B8B41BC824CA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10995" yWindow="10020" windowWidth="24255" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="437">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1336,6 +1336,9 @@
   </si>
   <si>
     <t>2018-06-27</t>
+  </si>
+  <si>
+    <t>2018-07-05</t>
   </si>
 </sst>
 </file>
@@ -2143,10 +2146,10 @@
   <dimension ref="A1:W201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="N171" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="N110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W188" sqref="W188"/>
+      <selection pane="bottomRight" activeCell="U117" sqref="U117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5159,7 +5162,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>13</v>
       </c>
@@ -5182,7 +5185,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>11</v>
       </c>
@@ -5205,7 +5208,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>73</v>
       </c>
@@ -5228,7 +5231,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>61</v>
       </c>
@@ -5251,7 +5254,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>61</v>
       </c>
@@ -5274,7 +5277,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>12</v>
       </c>
@@ -5297,7 +5300,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>61</v>
       </c>
@@ -5320,7 +5323,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>12</v>
       </c>
@@ -5343,7 +5346,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>13</v>
       </c>
@@ -5366,7 +5369,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>13</v>
       </c>
@@ -5389,7 +5392,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>163</v>
       </c>
@@ -5433,7 +5436,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>75</v>
       </c>
@@ -5477,7 +5480,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>163</v>
       </c>
@@ -5521,7 +5524,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>163</v>
       </c>
@@ -5564,8 +5567,17 @@
       <c r="P126" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U126" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="V126" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="W126" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>163</v>
       </c>
@@ -5609,7 +5621,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>163</v>
       </c>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatianagerena\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B312994E-0E17-497E-8895-B8B41BC824CA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C4299D-44ED-42E5-B0C2-7DEF94D4DE64}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10995" yWindow="10020" windowWidth="24255" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="438">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1339,6 +1339,9 @@
   </si>
   <si>
     <t>2018-07-05</t>
+  </si>
+  <si>
+    <t>2018-07-07</t>
   </si>
 </sst>
 </file>
@@ -2146,10 +2149,10 @@
   <dimension ref="A1:W201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="N110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="O162" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U117" sqref="U117"/>
+      <selection pane="bottomRight" activeCell="X178" sqref="X178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7554,6 +7557,12 @@
       <c r="T178" s="1" t="s">
         <v>389</v>
       </c>
+      <c r="U178" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="V178" s="1" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="179" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatianagerena\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C4299D-44ED-42E5-B0C2-7DEF94D4DE64}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAA362F-2D45-420C-9064-B797A0435123}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10995" yWindow="10020" windowWidth="24255" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="439">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1342,6 +1342,9 @@
   </si>
   <si>
     <t>2018-07-07</t>
+  </si>
+  <si>
+    <t>2018-07-11</t>
   </si>
 </sst>
 </file>
@@ -2146,13 +2149,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W201"/>
+  <dimension ref="A1:W202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="O162" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D180" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X178" sqref="X178"/>
+      <selection pane="bottomRight" activeCell="N202" sqref="N202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8600,6 +8603,38 @@
         <v>374</v>
       </c>
     </row>
+    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J202" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K202" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L202" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M202" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H122" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatianagerena\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAA362F-2D45-420C-9064-B797A0435123}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E88FC7-EB7F-48C9-95F0-F477F56690D8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10995" yWindow="10020" windowWidth="24255" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="441">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1345,6 +1345,12 @@
   </si>
   <si>
     <t>2018-07-11</t>
+  </si>
+  <si>
+    <t>2018-07-14</t>
+  </si>
+  <si>
+    <t>changed water 2018-07-14 20:00</t>
   </si>
 </sst>
 </file>
@@ -2152,10 +2158,10 @@
   <dimension ref="A1:W202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D180" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="O166" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N202" sqref="N202"/>
+      <selection pane="bottomRight" activeCell="W178" sqref="W178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7470,7 +7476,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>163</v>
       </c>
@@ -7504,11 +7510,32 @@
       <c r="M177" s="1" t="s">
         <v>359</v>
       </c>
+      <c r="N177" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="O177" s="1" t="s">
+        <v>416</v>
+      </c>
       <c r="P177" s="1" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q177" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R177" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="S177" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="T177" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="W177" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>163</v>
       </c>
@@ -7567,7 +7594,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>163</v>
       </c>
@@ -7611,7 +7638,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>163</v>
       </c>
@@ -7646,7 +7673,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>163</v>
       </c>
@@ -7687,7 +7714,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>163</v>
       </c>
@@ -7725,7 +7752,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>163</v>
       </c>
@@ -7778,7 +7805,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>163</v>
       </c>
@@ -7822,7 +7849,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>163</v>
       </c>
@@ -7863,7 +7890,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>163</v>
       </c>
@@ -7904,7 +7931,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>163</v>
       </c>
@@ -7963,7 +7990,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>163</v>
       </c>
@@ -8015,8 +8042,14 @@
       <c r="T188" s="1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U188" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="V188" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>163</v>
       </c>
@@ -8075,7 +8108,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>163</v>
       </c>
@@ -8110,7 +8143,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>163</v>
       </c>
@@ -8163,7 +8196,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>163</v>
       </c>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatianagerena\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E88FC7-EB7F-48C9-95F0-F477F56690D8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E57E34-FFF4-4614-A259-B5D60ECFDB48}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10995" yWindow="10020" windowWidth="24255" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="442">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1351,6 +1351,9 @@
   </si>
   <si>
     <t>changed water 2018-07-14 20:00</t>
+  </si>
+  <si>
+    <t>2018-07-21</t>
   </si>
 </sst>
 </file>
@@ -2158,10 +2161,10 @@
   <dimension ref="A1:W202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="O166" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="N184" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W178" sqref="W178"/>
+      <selection pane="bottomRight" activeCell="W198" sqref="W198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8494,6 +8497,12 @@
       <c r="T198" s="1" t="s">
         <v>416</v>
       </c>
+      <c r="U198" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="V198" s="1" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatianagerena\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E57E34-FFF4-4614-A259-B5D60ECFDB48}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7A7B6E-E3EB-40E2-AD70-21001FD819E0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10995" yWindow="10020" windowWidth="24255" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="444">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1354,6 +1354,12 @@
   </si>
   <si>
     <t>2018-07-21</t>
+  </si>
+  <si>
+    <t>2018-07-17</t>
+  </si>
+  <si>
+    <t>2018-07-23</t>
   </si>
 </sst>
 </file>
@@ -2161,10 +2167,10 @@
   <dimension ref="A1:W202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="N184" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="N175" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W198" sqref="W198"/>
+      <selection pane="bottomRight" activeCell="W177" sqref="W177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7534,6 +7540,12 @@
       <c r="T177" s="1" t="s">
         <v>416</v>
       </c>
+      <c r="U177" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="V177" s="1" t="s">
+        <v>409</v>
+      </c>
       <c r="W177" s="1" t="s">
         <v>440</v>
       </c>
@@ -8675,6 +8687,30 @@
       </c>
       <c r="M202" s="1" t="s">
         <v>419</v>
+      </c>
+      <c r="N202" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="O202" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q202" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R202" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S202" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="T202" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="U202" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="V202" s="1" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatianagerena\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7A7B6E-E3EB-40E2-AD70-21001FD819E0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC0E420-B8B8-4C34-AD34-554889CB287B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10995" yWindow="10020" windowWidth="24255" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="445">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1360,6 +1360,9 @@
   </si>
   <si>
     <t>2018-07-23</t>
+  </si>
+  <si>
+    <t>2018-07-24</t>
   </si>
 </sst>
 </file>
@@ -2167,10 +2170,10 @@
   <dimension ref="A1:W202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="N175" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="N158" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W177" sqref="W177"/>
+      <selection pane="bottomRight" activeCell="V174" sqref="V174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6827,7 +6830,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>11</v>
       </c>
@@ -6871,7 +6874,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>61</v>
       </c>
@@ -6915,7 +6918,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>163</v>
       </c>
@@ -6959,7 +6962,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>13</v>
       </c>
@@ -7000,7 +7003,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>13</v>
       </c>
@@ -7044,7 +7047,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>163</v>
       </c>
@@ -7088,7 +7091,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>13</v>
       </c>
@@ -7129,7 +7132,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>163</v>
       </c>
@@ -7164,7 +7167,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>13</v>
       </c>
@@ -7208,7 +7211,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>61</v>
       </c>
@@ -7249,7 +7252,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>163</v>
       </c>
@@ -7293,7 +7296,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>11</v>
       </c>
@@ -7337,7 +7340,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A173" s="9">
         <v>43000</v>
       </c>
@@ -7386,7 +7389,7 @@
       <c r="R173" s="10"/>
       <c r="S173" s="10"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>163</v>
       </c>
@@ -7420,8 +7423,14 @@
       <c r="M174" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U174" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="V174" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>163</v>
       </c>
@@ -7450,7 +7459,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>163</v>
       </c>
@@ -8717,7 +8726,7 @@
   <autoFilter ref="A1:H122" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatianagerena\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC0E420-B8B8-4C34-AD34-554889CB287B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D988E3-85F9-4E1A-8AD1-DA9CA524F9E5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10995" yWindow="10020" windowWidth="24255" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="446">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1363,6 +1363,9 @@
   </si>
   <si>
     <t>2018-07-24</t>
+  </si>
+  <si>
+    <t>2018-08-01</t>
   </si>
 </sst>
 </file>
@@ -2170,10 +2173,10 @@
   <dimension ref="A1:W202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="N158" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="R186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V174" sqref="V174"/>
+      <selection pane="bottomRight" activeCell="X196" sqref="X196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8457,6 +8460,12 @@
       <c r="T196" s="1" t="s">
         <v>433</v>
       </c>
+      <c r="U196" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="V196" s="1" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatianagerena\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D988E3-85F9-4E1A-8AD1-DA9CA524F9E5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E0B506-9F75-4577-86DB-ED061BDA08CB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10995" yWindow="10020" windowWidth="24255" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="448">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1366,6 +1366,12 @@
   </si>
   <si>
     <t>2018-08-01</t>
+  </si>
+  <si>
+    <t>2018-08-15</t>
+  </si>
+  <si>
+    <t>cotton dry</t>
   </si>
 </sst>
 </file>
@@ -2173,10 +2179,10 @@
   <dimension ref="A1:W202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="R186" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="N186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X196" sqref="X196"/>
+      <selection pane="bottomRight" activeCell="W194" sqref="W194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8319,6 +8325,15 @@
       <c r="T193" s="1" t="s">
         <v>391</v>
       </c>
+      <c r="U193" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="V193" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="W193" s="1" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">

--- a/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
+++ b/Data/2017-10-22_skipped_apple_cohort_eclosions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatianagerena\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E0B506-9F75-4577-86DB-ED061BDA08CB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DD3295-7561-49FE-8167-E9831435603D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10995" yWindow="10020" windowWidth="24255" windowHeight="15120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="449">
   <si>
     <t>Cohort_day</t>
   </si>
@@ -1372,6 +1372,9 @@
   </si>
   <si>
     <t>cotton dry</t>
+  </si>
+  <si>
+    <t>2018-08-29</t>
   </si>
 </sst>
 </file>
@@ -2179,10 +2182,10 @@
   <dimension ref="A1:W202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="N186" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="O174" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W194" sqref="W194"/>
+      <selection pane="bottomRight" activeCell="X176" sqref="X176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7502,6 +7505,30 @@
       <c r="M176" s="1" t="s">
         <v>355</v>
       </c>
+      <c r="N176" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="O176" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q176" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R176" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="S176" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="T176" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="U176" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="V176" s="1" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
